--- a/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业利润总额.xlsx
+++ b/data_month/zb/工业/按行业分工业企业主要经济指标(2001-2002)/工业企业利润总额.xlsx
@@ -2026,7 +2026,7 @@
         <v>36.46</v>
       </c>
       <c r="CW3" t="n">
-        <v>3.63</v>
+        <v>1.51</v>
       </c>
       <c r="CX3" t="n">
         <v>5.28</v>
@@ -2071,7 +2071,7 @@
         <v>50.79</v>
       </c>
       <c r="DL3" t="n">
-        <v>7.379999999999999</v>
+        <v>0.8499999999999979</v>
       </c>
       <c r="DM3" t="n">
         <v>50.36</v>
@@ -2225,7 +2225,7 @@
         <v>202.91</v>
       </c>
       <c r="E4" t="n">
-        <v>16.75</v>
+        <v>4.83</v>
       </c>
       <c r="F4" t="n">
         <v>62.17</v>
@@ -2243,7 +2243,7 @@
         <v>-30.71</v>
       </c>
       <c r="K4" t="n">
-        <v>2.17</v>
+        <v>0.3099999999999981</v>
       </c>
       <c r="L4" t="n">
         <v>8.81</v>
@@ -2270,7 +2270,7 @@
         <v>39.09</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73</v>
+        <v>0.649999999999999</v>
       </c>
       <c r="U4" t="n">
         <v>9.199999999999999</v>
@@ -2279,7 +2279,7 @@
         <v>-34.35</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4499999999999993</v>
+        <v>0.1099999999999995</v>
       </c>
       <c r="X4" t="n">
         <v>42.31</v>
@@ -2297,7 +2297,7 @@
         <v>10.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.779999999999999</v>
+        <v>1.640000000000003</v>
       </c>
       <c r="AD4" t="n">
         <v>21.03</v>
@@ -2306,7 +2306,7 @@
         <v>39.29</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.46</v>
+        <v>0.9400000000000002</v>
       </c>
       <c r="AG4" t="n">
         <v>4.53</v>
@@ -2324,7 +2324,7 @@
         <v>35.12</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5700000000000001</v>
+        <v>0.2300000000000001</v>
       </c>
       <c r="AM4" t="n">
         <v>4.42</v>
@@ -2333,7 +2333,7 @@
         <v>21.63</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.050000000000001</v>
+        <v>1.709999999999999</v>
       </c>
       <c r="AP4" t="n">
         <v>22.41</v>
@@ -2369,7 +2369,7 @@
         <v>24.83</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.3799999999999999</v>
+        <v>0.1799999999999997</v>
       </c>
       <c r="BB4" t="n">
         <v>3.86</v>
@@ -2387,7 +2387,7 @@
         <v>-204.3</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.91</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="BH4" t="n">
         <v>3.99</v>
@@ -2396,7 +2396,7 @@
         <v>369.25</v>
       </c>
       <c r="BJ4" t="n">
-        <v>11.06</v>
+        <v>5.1</v>
       </c>
       <c r="BK4" t="n">
         <v>51.43</v>
@@ -2423,7 +2423,7 @@
         <v>-136.51</v>
       </c>
       <c r="BS4" t="n">
-        <v>33.42999999999999</v>
+        <v>6.45999999999993</v>
       </c>
       <c r="BT4" t="n">
         <v>127.81</v>
@@ -2441,7 +2441,7 @@
         <v>11.66</v>
       </c>
       <c r="BY4" t="n">
-        <v>3.770000000000008</v>
+        <v>1.270000000000008</v>
       </c>
       <c r="BZ4" t="n">
         <v>51.06</v>
@@ -2450,7 +2450,7 @@
         <v>45.1</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.12</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="CC4" t="n">
         <v>7.13</v>
@@ -2459,7 +2459,7 @@
         <v>17.22</v>
       </c>
       <c r="CE4" t="n">
-        <v>59.38</v>
+        <v>258.02</v>
       </c>
       <c r="CF4" t="n">
         <v>16.99</v>
@@ -2468,7 +2468,7 @@
         <v>-134.21</v>
       </c>
       <c r="CH4" t="n">
-        <v>100.98</v>
+        <v>29.3</v>
       </c>
       <c r="CI4" t="n">
         <v>331.88</v>
@@ -2486,7 +2486,7 @@
         <v>16.96</v>
       </c>
       <c r="CN4" t="n">
-        <v>3.61</v>
+        <v>16.61</v>
       </c>
       <c r="CO4" t="n">
         <v>-2.06</v>
@@ -2495,7 +2495,7 @@
         <v>-36.63</v>
       </c>
       <c r="CQ4" t="n">
-        <v>5.17</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="CR4" t="n">
         <v>12.05</v>
@@ -2513,7 +2513,7 @@
         <v>39.45</v>
       </c>
       <c r="CW4" t="n">
-        <v>2.919999999999998</v>
+        <v>1.409999999999998</v>
       </c>
       <c r="CX4" t="n">
         <v>15.88</v>
@@ -2522,7 +2522,7 @@
         <v>112.92</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.1900000000000001</v>
+        <v>0.1500000000000004</v>
       </c>
       <c r="DA4" t="n">
         <v>2.3</v>
@@ -2558,7 +2558,7 @@
         <v>37.03</v>
       </c>
       <c r="DL4" t="n">
-        <v>5.219999999999999</v>
+        <v>2.670000000000005</v>
       </c>
       <c r="DM4" t="n">
         <v>67.54000000000001</v>
@@ -2567,7 +2567,7 @@
         <v>156.15</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.38</v>
+        <v>0.06</v>
       </c>
       <c r="DP4" t="n">
         <v>1.18</v>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.81</v>
+        <v>2.209999999999996</v>
       </c>
       <c r="C5" t="n">
         <v>19.52</v>
@@ -2712,7 +2712,7 @@
         <v>119.73</v>
       </c>
       <c r="E5" t="n">
-        <v>9.88999999999999</v>
+        <v>0.2299999999999898</v>
       </c>
       <c r="F5" t="n">
         <v>90.88</v>
@@ -2721,7 +2721,7 @@
         <v>83.33</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45</v>
+        <v>0.03999999999999937</v>
       </c>
       <c r="I5" t="n">
         <v>7.93</v>
@@ -2748,7 +2748,7 @@
         <v>115.32</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.47000000000001</v>
+        <v>0.8100000000000098</v>
       </c>
       <c r="R5" t="n">
         <v>60.13</v>
@@ -2757,7 +2757,7 @@
         <v>26.97</v>
       </c>
       <c r="T5" t="n">
-        <v>1.789999999999999</v>
+        <v>0.4900000000000009</v>
       </c>
       <c r="U5" t="n">
         <v>11.36</v>
@@ -2766,7 +2766,7 @@
         <v>-39.4</v>
       </c>
       <c r="W5" t="n">
-        <v>4.800000000000001</v>
+        <v>3.850000000000004</v>
       </c>
       <c r="X5" t="n">
         <v>56.27</v>
@@ -2820,7 +2820,7 @@
         <v>7.86</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.52</v>
+        <v>1.25</v>
       </c>
       <c r="AP5" t="n">
         <v>34.05</v>
@@ -2829,7 +2829,7 @@
         <v>83.56999999999999</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.889999999999997</v>
+        <v>0.2399999999999949</v>
       </c>
       <c r="AS5" t="n">
         <v>29.54</v>
@@ -2856,7 +2856,7 @@
         <v>29.4</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.73</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BB5" t="n">
         <v>7.29</v>
@@ -2874,7 +2874,7 @@
         <v>-152.76</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.8199999999999998</v>
+        <v>0.1399999999999997</v>
       </c>
       <c r="BH5" t="n">
         <v>6</v>
@@ -2892,7 +2892,7 @@
         <v>28.39</v>
       </c>
       <c r="BM5" t="n">
-        <v>5.28</v>
+        <v>24.24</v>
       </c>
       <c r="BN5" t="n">
         <v>-2.71</v>
@@ -2901,7 +2901,7 @@
         <v>-42.82</v>
       </c>
       <c r="BP5" t="n">
-        <v>9.739999999999998</v>
+        <v>46.86</v>
       </c>
       <c r="BQ5" t="n">
         <v>4.89</v>
@@ -2919,7 +2919,7 @@
         <v>23.08</v>
       </c>
       <c r="BV5" t="n">
-        <v>14.08999999999998</v>
+        <v>3.89999999999997</v>
       </c>
       <c r="BW5" t="n">
         <v>153.71</v>
@@ -2928,7 +2928,7 @@
         <v>12.9</v>
       </c>
       <c r="BY5" t="n">
-        <v>4.45999999999999</v>
+        <v>0.6899999999999822</v>
       </c>
       <c r="BZ5" t="n">
         <v>73.89</v>
@@ -2937,7 +2937,7 @@
         <v>40.5</v>
       </c>
       <c r="CB5" t="n">
-        <v>2.890000000000001</v>
+        <v>0.7800000000000009</v>
       </c>
       <c r="CC5" t="n">
         <v>10.52</v>
@@ -2955,7 +2955,7 @@
         <v>-158.87</v>
       </c>
       <c r="CH5" t="n">
-        <v>86.90000000000003</v>
+        <v>3.840000000000032</v>
       </c>
       <c r="CI5" t="n">
         <v>429.46</v>
@@ -2982,7 +2982,7 @@
         <v>-49.13</v>
       </c>
       <c r="CQ5" t="n">
-        <v>1.709999999999999</v>
+        <v>0.7399999999999993</v>
       </c>
       <c r="CR5" t="n">
         <v>16.31</v>
@@ -3000,7 +3000,7 @@
         <v>33.45</v>
       </c>
       <c r="CW5" t="n">
-        <v>2.650000000000002</v>
+        <v>1.240000000000004</v>
       </c>
       <c r="CX5" t="n">
         <v>27.42</v>
@@ -3009,7 +3009,7 @@
         <v>69.98999999999999</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.1199999999999992</v>
       </c>
       <c r="DA5" t="n">
         <v>3.51</v>
@@ -3027,7 +3027,7 @@
         <v>34.53</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.959999999999999</v>
+        <v>0.1599999999999953</v>
       </c>
       <c r="DG5" t="n">
         <v>29.26</v>
@@ -3036,7 +3036,7 @@
         <v>84.83</v>
       </c>
       <c r="DI5" t="n">
-        <v>2.959999999999996</v>
+        <v>1.639999999999976</v>
       </c>
       <c r="DJ5" t="n">
         <v>46</v>
@@ -3045,7 +3045,7 @@
         <v>31.09</v>
       </c>
       <c r="DL5" t="n">
-        <v>17.33</v>
+        <v>2.52</v>
       </c>
       <c r="DM5" t="n">
         <v>90.79000000000001</v>
@@ -3054,7 +3054,7 @@
         <v>99.52</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.34</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="DP5" t="n">
         <v>1.75</v>
@@ -3199,7 +3199,7 @@
         <v>77.69</v>
       </c>
       <c r="E6" t="n">
-        <v>12.98</v>
+        <v>3.090000000000011</v>
       </c>
       <c r="F6" t="n">
         <v>120.2</v>
@@ -3208,7 +3208,7 @@
         <v>57.73</v>
       </c>
       <c r="H6" t="n">
-        <v>1.98</v>
+        <v>0.02000000000000046</v>
       </c>
       <c r="I6" t="n">
         <v>12.17</v>
@@ -3217,7 +3217,7 @@
         <v>-12.06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.410000000000001</v>
+        <v>0.0300000000000028</v>
       </c>
       <c r="L6" t="n">
         <v>13.6</v>
@@ -3226,7 +3226,7 @@
         <v>10.92</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02999999999999999</v>
+        <v>0.009999999999999978</v>
       </c>
       <c r="O6" t="n">
         <v>0.11</v>
@@ -3235,7 +3235,7 @@
         <v>46.56</v>
       </c>
       <c r="Q6" t="n">
-        <v>16.44999999999999</v>
+        <v>10.54999999999995</v>
       </c>
       <c r="R6" t="n">
         <v>78.34</v>
@@ -3244,7 +3244,7 @@
         <v>19.08</v>
       </c>
       <c r="T6" t="n">
-        <v>4.830000000000002</v>
+        <v>0.1100000000000041</v>
       </c>
       <c r="U6" t="n">
         <v>14.86</v>
@@ -3253,7 +3253,7 @@
         <v>-41.2</v>
       </c>
       <c r="W6" t="n">
-        <v>8.439999999999998</v>
+        <v>3.639999999999997</v>
       </c>
       <c r="X6" t="n">
         <v>71.2</v>
@@ -3262,7 +3262,7 @@
         <v>17.09</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.670000000000002</v>
+        <v>2.63000000000001</v>
       </c>
       <c r="AA6" t="n">
         <v>19.84</v>
@@ -3271,7 +3271,7 @@
         <v>3.97</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.6099999999999959</v>
+        <v>0.2699999999999943</v>
       </c>
       <c r="AD6" t="n">
         <v>36.9</v>
@@ -3280,7 +3280,7 @@
         <v>36.67</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.9299999999999995</v>
+        <v>0.5299999999999974</v>
       </c>
       <c r="AG6" t="n">
         <v>7.8</v>
@@ -3289,7 +3289,7 @@
         <v>27.43</v>
       </c>
       <c r="AI6" t="n">
-        <v>377.1399999999999</v>
+        <v>214.4199999999989</v>
       </c>
       <c r="AJ6" t="n">
         <v>2123.57</v>
@@ -3298,7 +3298,7 @@
         <v>25.38</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.349999999999999</v>
+        <v>1.189999999999999</v>
       </c>
       <c r="AM6" t="n">
         <v>7.59</v>
@@ -3307,7 +3307,7 @@
         <v>6.08</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>0.23</v>
       </c>
       <c r="AP6" t="n">
         <v>49.22</v>
@@ -3316,7 +3316,7 @@
         <v>53.25</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.48</v>
+        <v>3.870000000000021</v>
       </c>
       <c r="AS6" t="n">
         <v>39.7</v>
@@ -3325,7 +3325,7 @@
         <v>44.09</v>
       </c>
       <c r="AU6" t="n">
-        <v>2.91</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AV6" t="n">
         <v>13.76</v>
@@ -3334,7 +3334,7 @@
         <v>15.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.129999999999995</v>
+        <v>0.3499999999999868</v>
       </c>
       <c r="AY6" t="n">
         <v>40.21</v>
@@ -3343,7 +3343,7 @@
         <v>24.43</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.26</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="BB6" t="n">
         <v>7.38</v>
@@ -3361,7 +3361,7 @@
         <v>-210.92</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.2700000000000004</v>
       </c>
       <c r="BH6" t="n">
         <v>8.880000000000001</v>
@@ -3370,7 +3370,7 @@
         <v>181.58</v>
       </c>
       <c r="BJ6" t="n">
-        <v>6.890000000000001</v>
+        <v>2.250000000000044</v>
       </c>
       <c r="BK6" t="n">
         <v>84.09999999999999</v>
@@ -3397,7 +3397,7 @@
         <v>-197.78</v>
       </c>
       <c r="BS6" t="n">
-        <v>18.2</v>
+        <v>10.43999999999997</v>
       </c>
       <c r="BT6" t="n">
         <v>198.58</v>
@@ -3406,7 +3406,7 @@
         <v>12.37</v>
       </c>
       <c r="BV6" t="n">
-        <v>39.94</v>
+        <v>14.15000000000011</v>
       </c>
       <c r="BW6" t="n">
         <v>197.91</v>
@@ -3415,7 +3415,7 @@
         <v>6.38</v>
       </c>
       <c r="BY6" t="n">
-        <v>20.72</v>
+        <v>14.19000000000007</v>
       </c>
       <c r="BZ6" t="n">
         <v>103.21</v>
@@ -3442,7 +3442,7 @@
         <v>-133.87</v>
       </c>
       <c r="CH6" t="n">
-        <v>20.56999999999996</v>
+        <v>12.8899999999999</v>
       </c>
       <c r="CI6" t="n">
         <v>540.3200000000001</v>
@@ -3451,7 +3451,7 @@
         <v>4.44</v>
       </c>
       <c r="CK6" t="n">
-        <v>9.810000000000002</v>
+        <v>6.810000000000002</v>
       </c>
       <c r="CL6" t="n">
         <v>53.4</v>
@@ -3469,7 +3469,7 @@
         <v>-62.02</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3.950000000000003</v>
+        <v>0.5300000000000051</v>
       </c>
       <c r="CR6" t="n">
         <v>23.67</v>
@@ -3478,7 +3478,7 @@
         <v>-7.99</v>
       </c>
       <c r="CT6" t="n">
-        <v>6.069999999999997</v>
+        <v>5.270000000000004</v>
       </c>
       <c r="CU6" t="n">
         <v>38.73</v>
@@ -3487,7 +3487,7 @@
         <v>38.76</v>
       </c>
       <c r="CW6" t="n">
-        <v>9.430000000000003</v>
+        <v>0.2399999999999931</v>
       </c>
       <c r="CX6" t="n">
         <v>42.14</v>
@@ -3496,7 +3496,7 @@
         <v>53.5</v>
       </c>
       <c r="CZ6" t="n">
-        <v>1.12</v>
+        <v>0.02000000000000046</v>
       </c>
       <c r="DA6" t="n">
         <v>4.95</v>
@@ -3505,7 +3505,7 @@
         <v>71.15000000000001</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.150000000000002</v>
+        <v>0.9900000000000042</v>
       </c>
       <c r="DD6" t="n">
         <v>31.14</v>
@@ -3514,7 +3514,7 @@
         <v>38.56</v>
       </c>
       <c r="DF6" t="n">
-        <v>6.670000000000002</v>
+        <v>2.430000000000013</v>
       </c>
       <c r="DG6" t="n">
         <v>37.38</v>
@@ -3523,7 +3523,7 @@
         <v>63.03</v>
       </c>
       <c r="DI6" t="n">
-        <v>10.11</v>
+        <v>0.2500000000000457</v>
       </c>
       <c r="DJ6" t="n">
         <v>59.28</v>
@@ -3532,7 +3532,7 @@
         <v>27.51</v>
       </c>
       <c r="DL6" t="n">
-        <v>13.12</v>
+        <v>1.01</v>
       </c>
       <c r="DM6" t="n">
         <v>110.16</v>
@@ -3541,7 +3541,7 @@
         <v>75.34</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="DP6" t="n">
         <v>2.47</v>
@@ -3677,7 +3677,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.599999999999997</v>
+        <v>0.329999999999997</v>
       </c>
       <c r="C7" t="n">
         <v>34.24</v>
@@ -3686,7 +3686,7 @@
         <v>82.28</v>
       </c>
       <c r="E7" t="n">
-        <v>3.710000000000001</v>
+        <v>0.6199999999999899</v>
       </c>
       <c r="F7" t="n">
         <v>138.66</v>
@@ -3695,7 +3695,7 @@
         <v>55.47</v>
       </c>
       <c r="H7" t="n">
-        <v>6.219999999999999</v>
+        <v>3.159999999999997</v>
       </c>
       <c r="I7" t="n">
         <v>16.55</v>
@@ -3704,7 +3704,7 @@
         <v>4.64</v>
       </c>
       <c r="K7" t="n">
-        <v>0.180000000000001</v>
+        <v>0.1199999999999954</v>
       </c>
       <c r="L7" t="n">
         <v>16.14</v>
@@ -3713,7 +3713,7 @@
         <v>7.36</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01000000000000001</v>
+        <v>3.295974604355933e-17</v>
       </c>
       <c r="O7" t="n">
         <v>0.12</v>
@@ -3722,7 +3722,7 @@
         <v>97.65000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.41000000000001</v>
+        <v>1.43000000000003</v>
       </c>
       <c r="R7" t="n">
         <v>83.28</v>
@@ -3758,7 +3758,7 @@
         <v>8.31</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.740000000000002</v>
+        <v>2.320000000000024</v>
       </c>
       <c r="AD7" t="n">
         <v>42.86</v>
@@ -3785,7 +3785,7 @@
         <v>20.36</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.440000000000001</v>
+        <v>0.09000000000000208</v>
       </c>
       <c r="AM7" t="n">
         <v>9.720000000000001</v>
@@ -3794,7 +3794,7 @@
         <v>-5.37</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.080000000000005</v>
+        <v>2.890000000000005</v>
       </c>
       <c r="AP7" t="n">
         <v>58.76</v>
@@ -3803,7 +3803,7 @@
         <v>46.45</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.359999999999999</v>
+        <v>0.769999999999996</v>
       </c>
       <c r="AS7" t="n">
         <v>43.82</v>
@@ -3821,7 +3821,7 @@
         <v>9.34</v>
       </c>
       <c r="AX7" t="n">
-        <v>7.089999999999996</v>
+        <v>4.520000000000036</v>
       </c>
       <c r="AY7" t="n">
         <v>45.94</v>
@@ -3830,7 +3830,7 @@
         <v>15.28</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.360000000000001</v>
+        <v>0.2700000000000009</v>
       </c>
       <c r="BB7" t="n">
         <v>8.91</v>
@@ -3857,7 +3857,7 @@
         <v>204.48</v>
       </c>
       <c r="BJ7" t="n">
-        <v>4.35000000000001</v>
+        <v>0.9399999999999773</v>
       </c>
       <c r="BK7" t="n">
         <v>102.23</v>
@@ -3875,7 +3875,7 @@
         <v>-11.21</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.8999999999999981</v>
+        <v>0.2199999999999913</v>
       </c>
       <c r="BQ7" t="n">
         <v>10.58</v>
@@ -3884,7 +3884,7 @@
         <v>-229.15</v>
       </c>
       <c r="BS7" t="n">
-        <v>53.10999999999999</v>
+        <v>4.33000000000002</v>
       </c>
       <c r="BT7" t="n">
         <v>249.15</v>
@@ -3893,7 +3893,7 @@
         <v>8.19</v>
       </c>
       <c r="BV7" t="n">
-        <v>35.57000000000002</v>
+        <v>9.720000000000002</v>
       </c>
       <c r="BW7" t="n">
         <v>230.13</v>
@@ -3902,7 +3902,7 @@
         <v>1.84</v>
       </c>
       <c r="BY7" t="n">
-        <v>15.55</v>
+        <v>0.6699999999999502</v>
       </c>
       <c r="BZ7" t="n">
         <v>131.26</v>
@@ -3911,7 +3911,7 @@
         <v>37.92</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.29</v>
+        <v>0.1100000000000021</v>
       </c>
       <c r="CC7" t="n">
         <v>17.63</v>
@@ -3920,7 +3920,7 @@
         <v>15.99</v>
       </c>
       <c r="CE7" t="n">
-        <v>49.95</v>
+        <v>244.03</v>
       </c>
       <c r="CF7" t="n">
         <v>-6.2</v>
@@ -3947,7 +3947,7 @@
         <v>0.18</v>
       </c>
       <c r="CN7" t="n">
-        <v>1.79</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="CO7" t="n">
         <v>-0.15</v>
@@ -3956,7 +3956,7 @@
         <v>-89.31999999999999</v>
       </c>
       <c r="CQ7" t="n">
-        <v>3.939999999999998</v>
+        <v>0.6399999999999839</v>
       </c>
       <c r="CR7" t="n">
         <v>28.27</v>
@@ -3983,7 +3983,7 @@
         <v>38.24</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.1000000000000004</v>
       </c>
       <c r="DA7" t="n">
         <v>5.33</v>
@@ -3992,7 +3992,7 @@
         <v>32.88</v>
       </c>
       <c r="DC7" t="n">
-        <v>3.589999999999996</v>
+        <v>0.4499999999999897</v>
       </c>
       <c r="DD7" t="n">
         <v>35.39</v>
@@ -4001,7 +4001,7 @@
         <v>43.72</v>
       </c>
       <c r="DF7" t="n">
-        <v>3.359999999999999</v>
+        <v>0.009999999999994014</v>
       </c>
       <c r="DG7" t="n">
         <v>43.65</v>
@@ -4010,7 +4010,7 @@
         <v>47.49</v>
       </c>
       <c r="DI7" t="n">
-        <v>8.18</v>
+        <v>1.029999999999996</v>
       </c>
       <c r="DJ7" t="n">
         <v>68.61</v>
@@ -4019,7 +4019,7 @@
         <v>21.22</v>
       </c>
       <c r="DL7" t="n">
-        <v>4.380000000000001</v>
+        <v>2.360000000000001</v>
       </c>
       <c r="DM7" t="n">
         <v>131.14</v>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7600000000000051</v>
+        <v>0.1000000000000111</v>
       </c>
       <c r="C8" t="n">
         <v>40.87</v>
@@ -4173,7 +4173,7 @@
         <v>72.81999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>3.330000000000009</v>
+        <v>2.090000000000029</v>
       </c>
       <c r="F8" t="n">
         <v>161.36</v>
@@ -4182,7 +4182,7 @@
         <v>52.41</v>
       </c>
       <c r="H8" t="n">
-        <v>14.16</v>
+        <v>0.5200000000000049</v>
       </c>
       <c r="I8" t="n">
         <v>21.84</v>
@@ -4191,7 +4191,7 @@
         <v>-9.07</v>
       </c>
       <c r="K8" t="n">
-        <v>2.699999999999999</v>
+        <v>2.009999999999998</v>
       </c>
       <c r="L8" t="n">
         <v>19</v>
@@ -4200,7 +4200,7 @@
         <v>5.68</v>
       </c>
       <c r="N8" t="n">
-        <v>0.009999999999999979</v>
+        <v>0.009999999999999913</v>
       </c>
       <c r="O8" t="n">
         <v>0.12</v>
@@ -4209,7 +4209,7 @@
         <v>79.11</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.219999999999988</v>
+        <v>1.359999999999928</v>
       </c>
       <c r="R8" t="n">
         <v>93.88</v>
@@ -4227,7 +4227,7 @@
         <v>-58.94</v>
       </c>
       <c r="W8" t="n">
-        <v>2.440000000000015</v>
+        <v>0.8000000000000274</v>
       </c>
       <c r="X8" t="n">
         <v>93.51000000000001</v>
@@ -4236,7 +4236,7 @@
         <v>19.73</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.879999999999999</v>
+        <v>2.280000000000007</v>
       </c>
       <c r="AA8" t="n">
         <v>28.94</v>
@@ -4245,7 +4245,7 @@
         <v>7.92</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.079999999999998</v>
+        <v>0.219999999999986</v>
       </c>
       <c r="AD8" t="n">
         <v>50.66</v>
@@ -4263,7 +4263,7 @@
         <v>19.41</v>
       </c>
       <c r="AI8" t="n">
-        <v>24.30000000000018</v>
+        <v>1.840000000000138</v>
       </c>
       <c r="AJ8" t="n">
         <v>2861.48</v>
@@ -4272,7 +4272,7 @@
         <v>15.83</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.829999999999998</v>
+        <v>1.119999999999991</v>
       </c>
       <c r="AM8" t="n">
         <v>12.1</v>
@@ -4281,7 +4281,7 @@
         <v>3.23</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.699999999999989</v>
+        <v>0.5799999999999841</v>
       </c>
       <c r="AP8" t="n">
         <v>66.88</v>
@@ -4290,7 +4290,7 @@
         <v>44.77</v>
       </c>
       <c r="AR8" t="n">
-        <v>5.329999999999998</v>
+        <v>3.790000000000006</v>
       </c>
       <c r="AS8" t="n">
         <v>48.18</v>
@@ -4317,7 +4317,7 @@
         <v>14.33</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.5999999999999979</v>
+        <v>0.2399999999999969</v>
       </c>
       <c r="BB8" t="n">
         <v>10.68</v>
@@ -4326,7 +4326,7 @@
         <v>13.84</v>
       </c>
       <c r="BD8" t="n">
-        <v>6.31</v>
+        <v>22.71</v>
       </c>
       <c r="BE8" t="n">
         <v>1.21</v>
@@ -4335,7 +4335,7 @@
         <v>-129.41</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.69</v>
+        <v>0.6099999999999999</v>
       </c>
       <c r="BH8" t="n">
         <v>13.26</v>
@@ -4344,7 +4344,7 @@
         <v>245.97</v>
       </c>
       <c r="BJ8" t="n">
-        <v>7.989999999999979</v>
+        <v>3.639999999999969</v>
       </c>
       <c r="BK8" t="n">
         <v>126.11</v>
@@ -4362,7 +4362,7 @@
         <v>-21.04</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.1000000000000072</v>
       </c>
       <c r="BQ8" t="n">
         <v>13.88</v>
@@ -4371,7 +4371,7 @@
         <v>-308.25</v>
       </c>
       <c r="BS8" t="n">
-        <v>38.82000000000005</v>
+        <v>3.910000000000053</v>
       </c>
       <c r="BT8" t="n">
         <v>307.06</v>
@@ -4398,7 +4398,7 @@
         <v>35.67</v>
       </c>
       <c r="CB8" t="n">
-        <v>2.870000000000001</v>
+        <v>2.249999999999995</v>
       </c>
       <c r="CC8" t="n">
         <v>20.71</v>
@@ -4416,7 +4416,7 @@
         <v>-57.55</v>
       </c>
       <c r="CH8" t="n">
-        <v>107.1899999999999</v>
+        <v>63.50999999999989</v>
       </c>
       <c r="CI8" t="n">
         <v>733.7</v>
@@ -4425,7 +4425,7 @@
         <v>-1.28</v>
       </c>
       <c r="CK8" t="n">
-        <v>2.99</v>
+        <v>1.490000000000002</v>
       </c>
       <c r="CL8" t="n">
         <v>68</v>
@@ -4443,7 +4443,7 @@
         <v>38.21</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1.96</v>
+        <v>0.260000000000006</v>
       </c>
       <c r="CR8" t="n">
         <v>34.36</v>
@@ -4461,7 +4461,7 @@
         <v>35.95</v>
       </c>
       <c r="CW8" t="n">
-        <v>1.350000000000003</v>
+        <v>0.0300000000000204</v>
       </c>
       <c r="CX8" t="n">
         <v>61.5</v>
@@ -4470,7 +4470,7 @@
         <v>31.55</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.4699999999999997</v>
+        <v>0.06999999999999929</v>
       </c>
       <c r="DA8" t="n">
         <v>6.22</v>
@@ -4479,7 +4479,7 @@
         <v>41.09</v>
       </c>
       <c r="DC8" t="n">
-        <v>1.809999999999999</v>
+        <v>0.370000000000005</v>
       </c>
       <c r="DD8" t="n">
         <v>40.33</v>
@@ -4488,7 +4488,7 @@
         <v>32.85</v>
       </c>
       <c r="DF8" t="n">
-        <v>3.29</v>
+        <v>3.280000000000006</v>
       </c>
       <c r="DG8" t="n">
         <v>51.05</v>
@@ -4497,7 +4497,7 @@
         <v>54.87</v>
       </c>
       <c r="DI8" t="n">
-        <v>1.690000000000005</v>
+        <v>0.660000000000009</v>
       </c>
       <c r="DJ8" t="n">
         <v>75.84</v>
@@ -4651,7 +4651,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3699999999999974</v>
+        <v>0.2699999999999863</v>
       </c>
       <c r="C9" t="n">
         <v>48.38</v>
@@ -4669,7 +4669,7 @@
         <v>46.79</v>
       </c>
       <c r="H9" t="n">
-        <v>4.859999999999999</v>
+        <v>1.159999999999997</v>
       </c>
       <c r="I9" t="n">
         <v>26.98</v>
@@ -4678,7 +4678,7 @@
         <v>20.65</v>
       </c>
       <c r="K9" t="n">
-        <v>2.23</v>
+        <v>0.07000000000000384</v>
       </c>
       <c r="L9" t="n">
         <v>21.22</v>
@@ -4696,7 +4696,7 @@
         <v>49.83</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.56999999999999</v>
+        <v>0.3500000000000014</v>
       </c>
       <c r="R9" t="n">
         <v>104.85</v>
@@ -4705,7 +4705,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.1999999999999958</v>
       </c>
       <c r="U9" t="n">
         <v>15.2</v>
@@ -4732,7 +4732,7 @@
         <v>9.119999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.7800000000000011</v>
+        <v>0.5600000000000152</v>
       </c>
       <c r="AD9" t="n">
         <v>58.03</v>
@@ -4741,7 +4741,7 @@
         <v>31.02</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.2399999999999991</v>
+        <v>0.0999999999999972</v>
       </c>
       <c r="AG9" t="n">
         <v>11.83</v>
@@ -4750,7 +4750,7 @@
         <v>21.52</v>
       </c>
       <c r="AI9" t="n">
-        <v>19.09999999999991</v>
+        <v>13.57999999999949</v>
       </c>
       <c r="AJ9" t="n">
         <v>3260.33</v>
@@ -4759,7 +4759,7 @@
         <v>12.64</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.619999999999999</v>
+        <v>0.230000000000002</v>
       </c>
       <c r="AM9" t="n">
         <v>15.19</v>
@@ -4768,7 +4768,7 @@
         <v>-5.01</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.080000000000005</v>
+        <v>0.6800000000000277</v>
       </c>
       <c r="AP9" t="n">
         <v>78.47</v>
@@ -4777,7 +4777,7 @@
         <v>40.19</v>
       </c>
       <c r="AR9" t="n">
-        <v>5.18</v>
+        <v>0.6199999999999974</v>
       </c>
       <c r="AS9" t="n">
         <v>54.67</v>
@@ -4786,7 +4786,7 @@
         <v>25.04</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.850000000000001</v>
+        <v>2.570000000000013</v>
       </c>
       <c r="AV9" t="n">
         <v>20.75</v>
@@ -4822,7 +4822,7 @@
         <v>-160.73</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.52</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="BH9" t="n">
         <v>16.39</v>
@@ -4831,7 +4831,7 @@
         <v>183.11</v>
       </c>
       <c r="BJ9" t="n">
-        <v>10.96000000000001</v>
+        <v>2.970000000000031</v>
       </c>
       <c r="BK9" t="n">
         <v>152.57</v>
@@ -4849,7 +4849,7 @@
         <v>-15.92</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.41</v>
+        <v>0.4499999999999995</v>
       </c>
       <c r="BQ9" t="n">
         <v>17.23</v>
@@ -4858,7 +4858,7 @@
         <v>-379.36</v>
       </c>
       <c r="BS9" t="n">
-        <v>34.48999999999995</v>
+        <v>26.66999999999985</v>
       </c>
       <c r="BT9" t="n">
         <v>344.27</v>
@@ -4867,7 +4867,7 @@
         <v>6.84</v>
       </c>
       <c r="BV9" t="n">
-        <v>40.35999999999996</v>
+        <v>9.160000000000053</v>
       </c>
       <c r="BW9" t="n">
         <v>291.49</v>
@@ -4912,7 +4912,7 @@
         <v>-3.55</v>
       </c>
       <c r="CK9" t="n">
-        <v>13.50999999999999</v>
+        <v>6.049999999999985</v>
       </c>
       <c r="CL9" t="n">
         <v>79.23999999999999</v>
@@ -4921,7 +4921,7 @@
         <v>-7.66</v>
       </c>
       <c r="CN9" t="n">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="CO9" t="n">
         <v>2.93</v>
@@ -4930,7 +4930,7 @@
         <v>205.8</v>
       </c>
       <c r="CQ9" t="n">
-        <v>5.270000000000003</v>
+        <v>1.089999999999997</v>
       </c>
       <c r="CR9" t="n">
         <v>42.17</v>
@@ -4948,7 +4948,7 @@
         <v>34.02</v>
       </c>
       <c r="CW9" t="n">
-        <v>9.930000000000007</v>
+        <v>7.169999999999959</v>
       </c>
       <c r="CX9" t="n">
         <v>74.88</v>
@@ -4957,7 +4957,7 @@
         <v>29.16</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.6599999999999988</v>
+        <v>0.05000000000000052</v>
       </c>
       <c r="DA9" t="n">
         <v>7.32</v>
@@ -4966,7 +4966,7 @@
         <v>38.79</v>
       </c>
       <c r="DC9" t="n">
-        <v>6.150000000000006</v>
+        <v>1.789999999999998</v>
       </c>
       <c r="DD9" t="n">
         <v>48.1</v>
@@ -4984,7 +4984,7 @@
         <v>46.66</v>
       </c>
       <c r="DI9" t="n">
-        <v>4.299999999999997</v>
+        <v>0.2599999999999778</v>
       </c>
       <c r="DJ9" t="n">
         <v>83.91</v>
@@ -4993,7 +4993,7 @@
         <v>12.41</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.3900000000000006</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="DM9" t="n">
         <v>162.27</v>
@@ -5002,7 +5002,7 @@
         <v>46.08</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.2600000000000002</v>
+        <v>0.08000000000000038</v>
       </c>
       <c r="DP9" t="n">
         <v>4.37</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.019999999999996</v>
+        <v>0.5400000000000071</v>
       </c>
       <c r="C10" t="n">
         <v>55.23</v>
@@ -5147,7 +5147,7 @@
         <v>56.55</v>
       </c>
       <c r="E10" t="n">
-        <v>19.22999999999999</v>
+        <v>13.03000000000007</v>
       </c>
       <c r="F10" t="n">
         <v>207.94</v>
@@ -5156,7 +5156,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>3.640000000000001</v>
+        <v>2.480000000000004</v>
       </c>
       <c r="I10" t="n">
         <v>31.77</v>
@@ -5174,7 +5174,7 @@
         <v>3.55</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="O10" t="n">
         <v>0.17</v>
@@ -5183,7 +5183,7 @@
         <v>49.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.41</v>
+        <v>10.79000000000001</v>
       </c>
       <c r="R10" t="n">
         <v>121.74</v>
@@ -5192,7 +5192,7 @@
         <v>-12.09</v>
       </c>
       <c r="T10" t="n">
-        <v>5.399999999999999</v>
+        <v>4.300000000000004</v>
       </c>
       <c r="U10" t="n">
         <v>16.76</v>
@@ -5201,7 +5201,7 @@
         <v>-65.06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53999999999999</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>124.13</v>
@@ -5210,7 +5210,7 @@
         <v>21.93</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.609999999999996</v>
+        <v>1.569999999999976</v>
       </c>
       <c r="AA10" t="n">
         <v>38.39</v>
@@ -5228,7 +5228,7 @@
         <v>34.26</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.4099999999999997</v>
+        <v>0.07000000000000339</v>
       </c>
       <c r="AG10" t="n">
         <v>13.52</v>
@@ -5246,7 +5246,7 @@
         <v>9.26</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.5700000000000018</v>
+        <v>0.1099999999999979</v>
       </c>
       <c r="AM10" t="n">
         <v>17.68</v>
@@ -5255,7 +5255,7 @@
         <v>0.39</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.409999999999984</v>
+        <v>2.049999999999928</v>
       </c>
       <c r="AP10" t="n">
         <v>89.14</v>
@@ -5282,7 +5282,7 @@
         <v>0.34</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.3700000000000117</v>
+        <v>0.03000000000002251</v>
       </c>
       <c r="AY10" t="n">
         <v>72.61</v>
@@ -5291,7 +5291,7 @@
         <v>16.29</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.379999999999999</v>
+        <v>0.8599999999999908</v>
       </c>
       <c r="BB10" t="n">
         <v>14.85</v>
@@ -5309,7 +5309,7 @@
         <v>-145.19</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.8200000000000012</v>
+        <v>0.620000000000001</v>
       </c>
       <c r="BH10" t="n">
         <v>20.03</v>
@@ -5318,7 +5318,7 @@
         <v>174.11</v>
       </c>
       <c r="BJ10" t="n">
-        <v>5.090000000000002</v>
+        <v>2.119999999999971</v>
       </c>
       <c r="BK10" t="n">
         <v>163.09</v>
@@ -5363,7 +5363,7 @@
         <v>-3.98</v>
       </c>
       <c r="BY10" t="n">
-        <v>4.44000000000004</v>
+        <v>2.10000000000007</v>
       </c>
       <c r="BZ10" t="n">
         <v>187.6</v>
@@ -5372,7 +5372,7 @@
         <v>33.33</v>
       </c>
       <c r="CB10" t="n">
-        <v>3.52</v>
+        <v>0.760000000000002</v>
       </c>
       <c r="CC10" t="n">
         <v>26.92</v>
@@ -5381,7 +5381,7 @@
         <v>4.82</v>
       </c>
       <c r="CE10" t="n">
-        <v>7.649999999999999</v>
+        <v>2.150000000000006</v>
       </c>
       <c r="CF10" t="n">
         <v>-45.08</v>
@@ -5390,7 +5390,7 @@
         <v>62.97</v>
       </c>
       <c r="CH10" t="n">
-        <v>117.0000000000001</v>
+        <v>34.67999999999971</v>
       </c>
       <c r="CI10" t="n">
         <v>895.62</v>
@@ -5426,7 +5426,7 @@
         <v>10.62</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.330000000000005</v>
+        <v>0.4900000000000298</v>
       </c>
       <c r="CU10" t="n">
         <v>68.68000000000001</v>
@@ -5444,7 +5444,7 @@
         <v>30.12</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.9800000000000004</v>
+        <v>0.0100000000000027</v>
       </c>
       <c r="DA10" t="n">
         <v>8.75</v>
@@ -5453,7 +5453,7 @@
         <v>28.5</v>
       </c>
       <c r="DC10" t="n">
-        <v>5.57</v>
+        <v>1.229999999999993</v>
       </c>
       <c r="DD10" t="n">
         <v>52.65</v>
@@ -5462,7 +5462,7 @@
         <v>19.5</v>
       </c>
       <c r="DF10" t="n">
-        <v>7.460000000000001</v>
+        <v>3.779999999999994</v>
       </c>
       <c r="DG10" t="n">
         <v>65.94</v>
@@ -5480,7 +5480,7 @@
         <v>11.9</v>
       </c>
       <c r="DL10" t="n">
-        <v>10.07999999999998</v>
+        <v>9.219999999999981</v>
       </c>
       <c r="DM10" t="n">
         <v>174.42</v>
@@ -5489,7 +5489,7 @@
         <v>35.09</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.6999999999999997</v>
+        <v>0.1099999999999986</v>
       </c>
       <c r="DP10" t="n">
         <v>5.13</v>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.920000000000003</v>
+        <v>1.060000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>65.12</v>
@@ -5643,7 +5643,7 @@
         <v>42.06</v>
       </c>
       <c r="H11" t="n">
-        <v>5.670000000000002</v>
+        <v>2.030000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>37.22</v>
@@ -5652,7 +5652,7 @@
         <v>20.6</v>
       </c>
       <c r="K11" t="n">
-        <v>1.260000000000002</v>
+        <v>0.0200000000000029</v>
       </c>
       <c r="L11" t="n">
         <v>26.85</v>
@@ -5670,7 +5670,7 @@
         <v>38.74</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.81</v>
+        <v>2.96999999999999</v>
       </c>
       <c r="R11" t="n">
         <v>133.43</v>
@@ -5679,7 +5679,7 @@
         <v>-13.85</v>
       </c>
       <c r="T11" t="n">
-        <v>44.09</v>
+        <v>24.29</v>
       </c>
       <c r="U11" t="n">
         <v>18.86</v>
@@ -5688,7 +5688,7 @@
         <v>-64.66</v>
       </c>
       <c r="W11" t="n">
-        <v>1.32000000000003</v>
+        <v>0.09000000000002967</v>
       </c>
       <c r="X11" t="n">
         <v>140.59</v>
@@ -5706,7 +5706,7 @@
         <v>8.359999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.29000000000001</v>
+        <v>1.250000000000018</v>
       </c>
       <c r="AD11" t="n">
         <v>76.81</v>
@@ -5715,7 +5715,7 @@
         <v>28.55</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.07000000000000073</v>
       </c>
       <c r="AG11" t="n">
         <v>15.42</v>
@@ -5724,7 +5724,7 @@
         <v>15.59</v>
       </c>
       <c r="AI11" t="n">
-        <v>70.03000000000014</v>
+        <v>40.87000000000006</v>
       </c>
       <c r="AJ11" t="n">
         <v>4069.39</v>
@@ -5733,7 +5733,7 @@
         <v>7.44</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.4300000000000002</v>
+        <v>0.0900000000000003</v>
       </c>
       <c r="AM11" t="n">
         <v>20.91</v>
@@ -5742,7 +5742,7 @@
         <v>5.62</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.21000000000001</v>
+        <v>1.390000000000041</v>
       </c>
       <c r="AP11" t="n">
         <v>103.8</v>
@@ -5751,7 +5751,7 @@
         <v>37.39</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.129999999999999</v>
+        <v>0.07999999999999607</v>
       </c>
       <c r="AS11" t="n">
         <v>64.98999999999999</v>
@@ -5760,7 +5760,7 @@
         <v>17.24</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.7699999999999996</v>
+        <v>0.3300000000000013</v>
       </c>
       <c r="AV11" t="n">
         <v>26.21</v>
@@ -5769,7 +5769,7 @@
         <v>-3.24</v>
       </c>
       <c r="AX11" t="n">
-        <v>5.479999999999993</v>
+        <v>5.019999999999914</v>
       </c>
       <c r="AY11" t="n">
         <v>84.17</v>
@@ -5778,7 +5778,7 @@
         <v>18.99</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.82</v>
+        <v>0.1900000000000042</v>
       </c>
       <c r="BB11" t="n">
         <v>17.68</v>
@@ -5787,7 +5787,7 @@
         <v>15.31</v>
       </c>
       <c r="BD11" t="n">
-        <v>3.29</v>
+        <v>7.649999999999999</v>
       </c>
       <c r="BE11" t="n">
         <v>0.28</v>
@@ -5796,7 +5796,7 @@
         <v>-125.26</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.619999999999999</v>
+        <v>0.07999999999999674</v>
       </c>
       <c r="BH11" t="n">
         <v>23.95</v>
@@ -5805,7 +5805,7 @@
         <v>148.28</v>
       </c>
       <c r="BJ11" t="n">
-        <v>4.119999999999976</v>
+        <v>2.000000000000005</v>
       </c>
       <c r="BK11" t="n">
         <v>171.37</v>
@@ -5814,7 +5814,7 @@
         <v>29.01</v>
       </c>
       <c r="BM11" t="n">
-        <v>12.89</v>
+        <v>45.13</v>
       </c>
       <c r="BN11" t="n">
         <v>-4.84</v>
@@ -5823,7 +5823,7 @@
         <v>-39.99</v>
       </c>
       <c r="BP11" t="n">
-        <v>16.19</v>
+        <v>36.43</v>
       </c>
       <c r="BQ11" t="n">
         <v>29.29</v>
@@ -5832,7 +5832,7 @@
         <v>-678.4</v>
       </c>
       <c r="BS11" t="n">
-        <v>38.78000000000003</v>
+        <v>10.77999999999979</v>
       </c>
       <c r="BT11" t="n">
         <v>418</v>
@@ -5841,7 +5841,7 @@
         <v>4.97</v>
       </c>
       <c r="BV11" t="n">
-        <v>28.26999999999992</v>
+        <v>6.709999999999742</v>
       </c>
       <c r="BW11" t="n">
         <v>404.65</v>
@@ -5850,7 +5850,7 @@
         <v>2.08</v>
       </c>
       <c r="BY11" t="n">
-        <v>12.02999999999998</v>
+        <v>1.289999999999729</v>
       </c>
       <c r="BZ11" t="n">
         <v>205.92</v>
@@ -5859,7 +5859,7 @@
         <v>27.67</v>
       </c>
       <c r="CB11" t="n">
-        <v>2.429999999999999</v>
+        <v>0.2899999999999978</v>
       </c>
       <c r="CC11" t="n">
         <v>31.74</v>
@@ -5868,7 +5868,7 @@
         <v>8.73</v>
       </c>
       <c r="CE11" t="n">
-        <v>5.670000000000002</v>
+        <v>0.7699999999999996</v>
       </c>
       <c r="CF11" t="n">
         <v>-37.97</v>
@@ -5895,7 +5895,7 @@
         <v>-9.33</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.92</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="CO11" t="n">
         <v>5.79</v>
@@ -5904,7 +5904,7 @@
         <v>224.96</v>
       </c>
       <c r="CQ11" t="n">
-        <v>5.57</v>
+        <v>1.770000000000018</v>
       </c>
       <c r="CR11" t="n">
         <v>55.55</v>
@@ -5913,7 +5913,7 @@
         <v>8.91</v>
       </c>
       <c r="CT11" t="n">
-        <v>5.900000000000006</v>
+        <v>1.839999999999949</v>
       </c>
       <c r="CU11" t="n">
         <v>79.90000000000001</v>
@@ -5922,7 +5922,7 @@
         <v>36.74</v>
       </c>
       <c r="CW11" t="n">
-        <v>4.97999999999999</v>
+        <v>0.6599999999999966</v>
       </c>
       <c r="CX11" t="n">
         <v>103.82</v>
@@ -5931,7 +5931,7 @@
         <v>26.39</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.7899999999999996</v>
+        <v>0.3299999999999928</v>
       </c>
       <c r="DA11" t="n">
         <v>10.4</v>
@@ -5940,7 +5940,7 @@
         <v>33.53</v>
       </c>
       <c r="DC11" t="n">
-        <v>3.939999999999998</v>
+        <v>1.480000000000012</v>
       </c>
       <c r="DD11" t="n">
         <v>58.34</v>
@@ -5949,7 +5949,7 @@
         <v>17.57</v>
       </c>
       <c r="DF11" t="n">
-        <v>6.55000000000001</v>
+        <v>0.01000000000001044</v>
       </c>
       <c r="DG11" t="n">
         <v>75.63</v>
@@ -5958,7 +5958,7 @@
         <v>38.43</v>
       </c>
       <c r="DI11" t="n">
-        <v>7</v>
+        <v>5.199999999999988</v>
       </c>
       <c r="DJ11" t="n">
         <v>92.73999999999999</v>
@@ -5976,7 +5976,7 @@
         <v>34.06</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.2900000000000005</v>
+        <v>0.02000000000000107</v>
       </c>
       <c r="DP11" t="n">
         <v>5.95</v>
@@ -6121,7 +6121,7 @@
         <v>39.3</v>
       </c>
       <c r="E12" t="n">
-        <v>14.64</v>
+        <v>4.549999999999971</v>
       </c>
       <c r="F12" t="n">
         <v>281.95</v>
@@ -6139,7 +6139,7 @@
         <v>15.56</v>
       </c>
       <c r="K12" t="n">
-        <v>3.75</v>
+        <v>2.42999999999999</v>
       </c>
       <c r="L12" t="n">
         <v>33.34</v>
@@ -6148,7 +6148,7 @@
         <v>7.19</v>
       </c>
       <c r="N12" t="n">
-        <v>0.03</v>
+        <v>1.734723475976807e-18</v>
       </c>
       <c r="O12" t="n">
         <v>0.09</v>
@@ -6157,7 +6157,7 @@
         <v>-41.53</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.93</v>
+        <v>2.99000000000002</v>
       </c>
       <c r="R12" t="n">
         <v>169.19</v>
@@ -6175,7 +6175,7 @@
         <v>-51.01</v>
       </c>
       <c r="W12" t="n">
-        <v>1.529999999999978</v>
+        <v>0.209999999999948</v>
       </c>
       <c r="X12" t="n">
         <v>162.21</v>
@@ -6184,7 +6184,7 @@
         <v>23.78</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.76</v>
+        <v>1.230000000000006</v>
       </c>
       <c r="AA12" t="n">
         <v>49.96</v>
@@ -6193,7 +6193,7 @@
         <v>6.06</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.109999999999999</v>
+        <v>0.5099999999999481</v>
       </c>
       <c r="AD12" t="n">
         <v>91.63</v>
@@ -6202,7 +6202,7 @@
         <v>31.09</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.93</v>
+        <v>1.239999999999997</v>
       </c>
       <c r="AG12" t="n">
         <v>17.76</v>
@@ -6211,7 +6211,7 @@
         <v>12.15</v>
       </c>
       <c r="AI12" t="n">
-        <v>485.31</v>
+        <v>248.9299999999996</v>
       </c>
       <c r="AJ12" t="n">
         <v>4657.19</v>
@@ -6220,7 +6220,7 @@
         <v>8.109999999999999</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.57</v>
+        <v>0.2799999999999995</v>
       </c>
       <c r="AM12" t="n">
         <v>24.9</v>
@@ -6229,7 +6229,7 @@
         <v>11.09</v>
       </c>
       <c r="AO12" t="n">
-        <v>3.65</v>
+        <v>0.869999999999918</v>
       </c>
       <c r="AP12" t="n">
         <v>121.09</v>
@@ -6238,7 +6238,7 @@
         <v>27.13</v>
       </c>
       <c r="AR12" t="n">
-        <v>6.76</v>
+        <v>1.120000000000008</v>
       </c>
       <c r="AS12" t="n">
         <v>73.44</v>
@@ -6247,7 +6247,7 @@
         <v>11.13</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.95</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="AV12" t="n">
         <v>30.22</v>
@@ -6256,7 +6256,7 @@
         <v>-3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11.31</v>
+        <v>0.7200000000000255</v>
       </c>
       <c r="AY12" t="n">
         <v>99.54000000000001</v>
@@ -6265,7 +6265,7 @@
         <v>17.81</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.9</v>
+        <v>0.5199999999999917</v>
       </c>
       <c r="BB12" t="n">
         <v>20.93</v>
@@ -6292,7 +6292,7 @@
         <v>147.28</v>
       </c>
       <c r="BJ12" t="n">
-        <v>22.93000000000002</v>
+        <v>8.570000000000086</v>
       </c>
       <c r="BK12" t="n">
         <v>178.47</v>
@@ -6319,7 +6319,7 @@
         <v>588.08</v>
       </c>
       <c r="BS12" t="n">
-        <v>19.83999999999997</v>
+        <v>2.060000000000123</v>
       </c>
       <c r="BT12" t="n">
         <v>489.67</v>
@@ -6328,7 +6328,7 @@
         <v>12.06</v>
       </c>
       <c r="BV12" t="n">
-        <v>48.96</v>
+        <v>3.200000000000248</v>
       </c>
       <c r="BW12" t="n">
         <v>466.68</v>
@@ -6337,7 +6337,7 @@
         <v>-1.92</v>
       </c>
       <c r="BY12" t="n">
-        <v>17.54</v>
+        <v>0.02000000000015056</v>
       </c>
       <c r="BZ12" t="n">
         <v>236.95</v>
@@ -6346,7 +6346,7 @@
         <v>22.18</v>
       </c>
       <c r="CB12" t="n">
-        <v>3.86</v>
+        <v>0.8500000000000052</v>
       </c>
       <c r="CC12" t="n">
         <v>39.55</v>
@@ -6355,7 +6355,7 @@
         <v>12.51</v>
       </c>
       <c r="CE12" t="n">
-        <v>10.37</v>
+        <v>3.159999999999999</v>
       </c>
       <c r="CF12" t="n">
         <v>-25.32</v>
@@ -6364,7 +6364,7 @@
         <v>278.5</v>
       </c>
       <c r="CH12" t="n">
-        <v>105.59</v>
+        <v>52.11999999999998</v>
       </c>
       <c r="CI12" t="n">
         <v>971.39</v>
@@ -6373,7 +6373,7 @@
         <v>-15.43</v>
       </c>
       <c r="CK12" t="n">
-        <v>10.88</v>
+        <v>2.600000000000042</v>
       </c>
       <c r="CL12" t="n">
         <v>132.62</v>
@@ -6391,7 +6391,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="CQ12" t="n">
-        <v>3.03</v>
+        <v>0.3099999999999858</v>
       </c>
       <c r="CR12" t="n">
         <v>64.25</v>
@@ -6418,7 +6418,7 @@
         <v>29.26</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.55</v>
+        <v>0.08000000000000207</v>
       </c>
       <c r="DA12" t="n">
         <v>12.94</v>
@@ -6427,7 +6427,7 @@
         <v>35.32</v>
       </c>
       <c r="DC12" t="n">
-        <v>6.740000000000002</v>
+        <v>0.08999999999999897</v>
       </c>
       <c r="DD12" t="n">
         <v>65.09</v>
@@ -6436,7 +6436,7 @@
         <v>21.52</v>
       </c>
       <c r="DF12" t="n">
-        <v>9.949999999999999</v>
+        <v>3.37999999999997</v>
       </c>
       <c r="DG12" t="n">
         <v>91.59</v>
@@ -6445,7 +6445,7 @@
         <v>33.4</v>
       </c>
       <c r="DI12" t="n">
-        <v>7.989999999999998</v>
+        <v>0.9899999999999984</v>
       </c>
       <c r="DJ12" t="n">
         <v>103.8</v>
@@ -6463,7 +6463,7 @@
         <v>29.48</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.44</v>
+        <v>0.1299999999999984</v>
       </c>
       <c r="DP12" t="n">
         <v>7.43</v>
@@ -6599,7 +6599,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.81</v>
+        <v>0.2100000000000002</v>
       </c>
       <c r="C13" t="n">
         <v>4.01</v>
@@ -6608,7 +6608,7 @@
         <v>249.85</v>
       </c>
       <c r="E13" t="n">
-        <v>9.870000000000001</v>
+        <v>0.7700000000000582</v>
       </c>
       <c r="F13" t="n">
         <v>20.9</v>
@@ -6617,7 +6617,7 @@
         <v>42.77</v>
       </c>
       <c r="H13" t="n">
-        <v>0.77</v>
+        <v>0.5299999999999998</v>
       </c>
       <c r="I13" t="n">
         <v>3.58</v>
@@ -6635,7 +6635,7 @@
         <v>13.13</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -6644,7 +6644,7 @@
         <v>-96.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.55</v>
+        <v>1.620000000000001</v>
       </c>
       <c r="R13" t="n">
         <v>6.11</v>
@@ -6662,7 +6662,7 @@
         <v>-160.7</v>
       </c>
       <c r="W13" t="n">
-        <v>11.26</v>
+        <v>9.100000000000179</v>
       </c>
       <c r="X13" t="n">
         <v>21.99</v>
@@ -6671,7 +6671,7 @@
         <v>30.79</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.779999999999999</v>
+        <v>0.03999999999999471</v>
       </c>
       <c r="AA13" t="n">
         <v>6.19</v>
@@ -6680,7 +6680,7 @@
         <v>7.51</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.610000000000001</v>
+        <v>0.7900000000000116</v>
       </c>
       <c r="AD13" t="n">
         <v>9.800000000000001</v>
@@ -6698,7 +6698,7 @@
         <v>14.6</v>
       </c>
       <c r="AI13" t="n">
-        <v>393.86</v>
+        <v>41.32000000000022</v>
       </c>
       <c r="AJ13" t="n">
         <v>430.41</v>
@@ -6707,7 +6707,7 @@
         <v>-11.31</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.46</v>
+        <v>0.04000000000000059</v>
       </c>
       <c r="AM13" t="n">
         <v>2.76</v>
@@ -6716,7 +6716,7 @@
         <v>75.86</v>
       </c>
       <c r="AO13" t="n">
-        <v>4.389999999999999</v>
+        <v>0.7399999999999989</v>
       </c>
       <c r="AP13" t="n">
         <v>7.09</v>
@@ -6725,7 +6725,7 @@
         <v>94.01000000000001</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.83</v>
+        <v>0.5699999999999981</v>
       </c>
       <c r="AS13" t="n">
         <v>3.22</v>
@@ -6734,7 +6734,7 @@
         <v>-52.45</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.569999999999999</v>
+        <v>0.3899999999999979</v>
       </c>
       <c r="AV13" t="n">
         <v>2.85</v>
@@ -6743,7 +6743,7 @@
         <v>-3.48</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.769999999999998</v>
+        <v>0.4999999999999405</v>
       </c>
       <c r="AY13" t="n">
         <v>14.26</v>
@@ -6752,7 +6752,7 @@
         <v>26.05</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.9700000000000001</v>
+        <v>0.07000000000000006</v>
       </c>
       <c r="BB13" t="n">
         <v>1.39</v>
@@ -6770,7 +6770,7 @@
         <v>221.98</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.52</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="BH13" t="n">
         <v>2.68</v>
@@ -6779,7 +6779,7 @@
         <v>614.14</v>
       </c>
       <c r="BJ13" t="n">
-        <v>14.78</v>
+        <v>0.0899999999999288</v>
       </c>
       <c r="BK13" t="n">
         <v>43.92</v>
@@ -6797,7 +6797,7 @@
         <v>42.45</v>
       </c>
       <c r="BP13" t="n">
-        <v>4.62</v>
+        <v>9.66</v>
       </c>
       <c r="BQ13" t="n">
         <v>10.16</v>
@@ -6806,7 +6806,7 @@
         <v>-903.5599999999999</v>
       </c>
       <c r="BS13" t="n">
-        <v>35.07</v>
+        <v>15.23000000000003</v>
       </c>
       <c r="BT13" t="n">
         <v>61.31</v>
@@ -6815,7 +6815,7 @@
         <v>4.59</v>
       </c>
       <c r="BV13" t="n">
-        <v>40.87</v>
+        <v>13.77999999999942</v>
       </c>
       <c r="BW13" t="n">
         <v>39.34</v>
@@ -6824,7 +6824,7 @@
         <v>-19.65</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.2600000000000016</v>
+        <v>0.2399999999998511</v>
       </c>
       <c r="BZ13" t="n">
         <v>23.4</v>
@@ -6833,7 +6833,7 @@
         <v>33.44</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.67</v>
+        <v>0.2399999999999989</v>
       </c>
       <c r="CC13" t="n">
         <v>4.78</v>
@@ -6842,7 +6842,7 @@
         <v>23.98</v>
       </c>
       <c r="CE13" t="n">
-        <v>5.880000000000001</v>
+        <v>1.180000000000002</v>
       </c>
       <c r="CF13" t="n">
         <v>-27.87</v>
@@ -6851,7 +6851,7 @@
         <v>-857.8</v>
       </c>
       <c r="CH13" t="n">
-        <v>100.2</v>
+        <v>48.08000000000002</v>
       </c>
       <c r="CI13" t="n">
         <v>83.62</v>
@@ -6860,7 +6860,7 @@
         <v>-47.43</v>
       </c>
       <c r="CK13" t="n">
-        <v>10.33</v>
+        <v>1.519999999999989</v>
       </c>
       <c r="CL13" t="n">
         <v>8.82</v>
@@ -6887,7 +6887,7 @@
         <v>138.19</v>
       </c>
       <c r="CT13" t="n">
-        <v>5.579999999999999</v>
+        <v>3.340000000000022</v>
       </c>
       <c r="CU13" t="n">
         <v>9.31</v>
@@ -6896,7 +6896,7 @@
         <v>44.13</v>
       </c>
       <c r="CW13" t="n">
-        <v>3.05</v>
+        <v>1.85</v>
       </c>
       <c r="CX13" t="n">
         <v>3.24</v>
@@ -6905,7 +6905,7 @@
         <v>994.77</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.3399999999999978</v>
       </c>
       <c r="DA13" t="n">
         <v>0.95</v>
@@ -6914,7 +6914,7 @@
         <v>72.79000000000001</v>
       </c>
       <c r="DC13" t="n">
-        <v>5.830000000000002</v>
+        <v>0.2299999999999942</v>
       </c>
       <c r="DD13" t="n">
         <v>11.71</v>
@@ -6923,7 +6923,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="DF13" t="n">
-        <v>6.75</v>
+        <v>3.35000000000001</v>
       </c>
       <c r="DG13" t="n">
         <v>11.58</v>
@@ -6932,7 +6932,7 @@
         <v>16.33</v>
       </c>
       <c r="DI13" t="n">
-        <v>10.42</v>
+        <v>0.4500000000000046</v>
       </c>
       <c r="DJ13" t="n">
         <v>21.55</v>
@@ -6941,7 +6941,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="DL13" t="n">
-        <v>20.9</v>
+        <v>0.6800000000000033</v>
       </c>
       <c r="DM13" t="n">
         <v>12.91</v>
@@ -6950,7 +6950,7 @@
         <v>-48.34</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.19</v>
+        <v>0.04000000000000051</v>
       </c>
       <c r="DP13" t="n">
         <v>0.59</v>
@@ -7095,7 +7095,7 @@
         <v>62.6</v>
       </c>
       <c r="E14" t="n">
-        <v>1.63000000000001</v>
+        <v>0.8599999999999519</v>
       </c>
       <c r="F14" t="n">
         <v>49.92</v>
@@ -7104,7 +7104,7 @@
         <v>27.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.15</v>
+        <v>1.43</v>
       </c>
       <c r="I14" t="n">
         <v>6.3</v>
@@ -7113,7 +7113,7 @@
         <v>604.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.550000000000001</v>
+        <v>2.510000000000001</v>
       </c>
       <c r="L14" t="n">
         <v>6.76</v>
@@ -7122,7 +7122,7 @@
         <v>-13</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O14" t="n">
         <v>-0.02</v>
@@ -7131,7 +7131,7 @@
         <v>-138.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>16.79</v>
+        <v>1.379999999999995</v>
       </c>
       <c r="R14" t="n">
         <v>23.8</v>
@@ -7140,7 +7140,7 @@
         <v>-16.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.32</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="U14" t="n">
         <v>1.88</v>
@@ -7158,7 +7158,7 @@
         <v>39.1</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.420000000000002</v>
+        <v>1.380000000000007</v>
       </c>
       <c r="AA14" t="n">
         <v>9.52</v>
@@ -7167,7 +7167,7 @@
         <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.339999999999998</v>
+        <v>4.759999999999974</v>
       </c>
       <c r="AD14" t="n">
         <v>17.87</v>
@@ -7185,7 +7185,7 @@
         <v>25.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>389.61</v>
+        <v>348.2899999999998</v>
       </c>
       <c r="AJ14" t="n">
         <v>799.1799999999999</v>
@@ -7203,7 +7203,7 @@
         <v>37</v>
       </c>
       <c r="AO14" t="n">
-        <v>3.170000000000002</v>
+        <v>0.9500000000000051</v>
       </c>
       <c r="AP14" t="n">
         <v>19.49</v>
@@ -7212,7 +7212,7 @@
         <v>66.7</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.909999999999998</v>
+        <v>1.34</v>
       </c>
       <c r="AS14" t="n">
         <v>7.2</v>
@@ -7221,7 +7221,7 @@
         <v>-42.8</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.08</v>
+        <v>1.300000000000004</v>
       </c>
       <c r="AV14" t="n">
         <v>4.83</v>
@@ -7230,7 +7230,7 @@
         <v>-12.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>6.630000000000003</v>
+        <v>3.470000000000046</v>
       </c>
       <c r="AY14" t="n">
         <v>21.18</v>
@@ -7239,7 +7239,7 @@
         <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>1.38</v>
+        <v>0.1999999999999995</v>
       </c>
       <c r="BB14" t="n">
         <v>3.48</v>
@@ -7248,7 +7248,7 @@
         <v>25.6</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="BE14" t="n">
         <v>1.18</v>
@@ -7257,7 +7257,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.48</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="BH14" t="n">
         <v>5</v>
@@ -7266,7 +7266,7 @@
         <v>119.8</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.750000000000002</v>
+        <v>2.660000000000073</v>
       </c>
       <c r="BK14" t="n">
         <v>62.5</v>
@@ -7302,7 +7302,7 @@
         <v>0.9</v>
       </c>
       <c r="BV14" t="n">
-        <v>26.56</v>
+        <v>6.380000000000077</v>
       </c>
       <c r="BW14" t="n">
         <v>79.95999999999999</v>
@@ -7311,7 +7311,7 @@
         <v>-11</v>
       </c>
       <c r="BY14" t="n">
-        <v>17.41999999999999</v>
+        <v>16.37999999999999</v>
       </c>
       <c r="BZ14" t="n">
         <v>42.12</v>
@@ -7320,7 +7320,7 @@
         <v>19.2</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.71</v>
+        <v>0.2300000000000022</v>
       </c>
       <c r="CC14" t="n">
         <v>7.5</v>
@@ -7329,7 +7329,7 @@
         <v>35.6</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.369999999999999</v>
+        <v>1.009999999999995</v>
       </c>
       <c r="CF14" t="n">
         <v>-18.65</v>
@@ -7338,7 +7338,7 @@
         <v>-295</v>
       </c>
       <c r="CH14" t="n">
-        <v>91.86000000000001</v>
+        <v>43.77999999999999</v>
       </c>
       <c r="CI14" t="n">
         <v>128.3</v>
@@ -7365,7 +7365,7 @@
         <v>47.7</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4.110000000000001</v>
+        <v>0.4800000000000011</v>
       </c>
       <c r="CR14" t="n">
         <v>14.09</v>
@@ -7383,7 +7383,7 @@
         <v>37.5</v>
       </c>
       <c r="CW14" t="n">
-        <v>7.300000000000001</v>
+        <v>1.500000000000001</v>
       </c>
       <c r="CX14" t="n">
         <v>6.87</v>
@@ -7392,7 +7392,7 @@
         <v>88.5</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.4400000000000002</v>
+        <v>0.02000000000000035</v>
       </c>
       <c r="DA14" t="n">
         <v>2.12</v>
@@ -7401,7 +7401,7 @@
         <v>119.1</v>
       </c>
       <c r="DC14" t="n">
-        <v>5.079999999999998</v>
+        <v>1.820000000000006</v>
       </c>
       <c r="DD14" t="n">
         <v>16.95</v>
@@ -7419,7 +7419,7 @@
         <v>0.5</v>
       </c>
       <c r="DI14" t="n">
-        <v>7.639999999999997</v>
+        <v>3.319999999999988</v>
       </c>
       <c r="DJ14" t="n">
         <v>32.23</v>
@@ -7428,7 +7428,7 @@
         <v>6.8</v>
       </c>
       <c r="DL14" t="n">
-        <v>2.850000000000001</v>
+        <v>2.169999999999998</v>
       </c>
       <c r="DM14" t="n">
         <v>34.66</v>
@@ -7437,7 +7437,7 @@
         <v>-24.5</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.21</v>
+        <v>0.01999999999999999</v>
       </c>
       <c r="DP14" t="n">
         <v>0.9</v>
@@ -7573,7 +7573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1900000000000022</v>
+        <v>0.08000000000000369</v>
       </c>
       <c r="C15" t="n">
         <v>20.96</v>
@@ -7582,7 +7582,7 @@
         <v>59</v>
       </c>
       <c r="E15" t="n">
-        <v>2.899999999999977</v>
+        <v>1.269999999999967</v>
       </c>
       <c r="F15" t="n">
         <v>86.13</v>
@@ -7600,7 +7600,7 @@
         <v>80.3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.91</v>
+        <v>0.1399999999999992</v>
       </c>
       <c r="L15" t="n">
         <v>9.949999999999999</v>
@@ -7627,7 +7627,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9900000000000002</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="U15" t="n">
         <v>5.14</v>
@@ -7645,7 +7645,7 @@
         <v>28.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.200000000000001</v>
+        <v>1.359999999999997</v>
       </c>
       <c r="AA15" t="n">
         <v>14.59</v>
@@ -7663,7 +7663,7 @@
         <v>29.7</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.25</v>
+        <v>0.49</v>
       </c>
       <c r="AG15" t="n">
         <v>4.82</v>
@@ -7681,7 +7681,7 @@
         <v>-2.4</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.8500000000000005</v>
+        <v>0.2300000000000004</v>
       </c>
       <c r="AM15" t="n">
         <v>5.72</v>
@@ -7726,7 +7726,7 @@
         <v>12.2</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.7799999999999989</v>
+        <v>0.02999999999999942</v>
       </c>
       <c r="BB15" t="n">
         <v>5.12</v>
@@ -7735,7 +7735,7 @@
         <v>23.4</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.59</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="BE15" t="n">
         <v>1.41</v>
@@ -7753,7 +7753,7 @@
         <v>82.5</v>
       </c>
       <c r="BJ15" t="n">
-        <v>15.7</v>
+        <v>4.699999999999996</v>
       </c>
       <c r="BK15" t="n">
         <v>85.43000000000001</v>
@@ -7780,7 +7780,7 @@
         <v>453.5</v>
       </c>
       <c r="BS15" t="n">
-        <v>4.950000000000024</v>
+        <v>0.4300000000000721</v>
       </c>
       <c r="BT15" t="n">
         <v>135.84</v>
@@ -7789,7 +7789,7 @@
         <v>4.6</v>
       </c>
       <c r="BV15" t="n">
-        <v>8.749999999999989</v>
+        <v>2.369999999999912</v>
       </c>
       <c r="BW15" t="n">
         <v>109.46</v>
@@ -7807,7 +7807,7 @@
         <v>26.2</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="CC15" t="n">
         <v>10.88</v>
@@ -7816,7 +7816,7 @@
         <v>37.5</v>
       </c>
       <c r="CE15" t="n">
-        <v>4.01</v>
+        <v>0.6400000000000006</v>
       </c>
       <c r="CF15" t="n">
         <v>-6.62</v>
@@ -7843,7 +7843,7 @@
         <v>-5.4</v>
       </c>
       <c r="CN15" t="n">
-        <v>3.7</v>
+        <v>16.62</v>
       </c>
       <c r="CO15" t="n">
         <v>-4.84</v>
@@ -7852,7 +7852,7 @@
         <v>49.7</v>
       </c>
       <c r="CQ15" t="n">
-        <v>3.77</v>
+        <v>0.3899999999999981</v>
       </c>
       <c r="CR15" t="n">
         <v>19.56</v>
@@ -7870,7 +7870,7 @@
         <v>31.4</v>
       </c>
       <c r="CW15" t="n">
-        <v>2.27</v>
+        <v>0.7699999999999989</v>
       </c>
       <c r="CX15" t="n">
         <v>15.75</v>
@@ -7879,7 +7879,7 @@
         <v>10.1</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.1699999999999987</v>
       </c>
       <c r="DA15" t="n">
         <v>2.97</v>
@@ -7888,7 +7888,7 @@
         <v>61.9</v>
       </c>
       <c r="DC15" t="n">
-        <v>4.059999999999999</v>
+        <v>2.009999999999999</v>
       </c>
       <c r="DD15" t="n">
         <v>21.81</v>
@@ -7897,7 +7897,7 @@
         <v>1</v>
       </c>
       <c r="DF15" t="n">
-        <v>7.359999999999999</v>
+        <v>4.039999999999992</v>
       </c>
       <c r="DG15" t="n">
         <v>24.75</v>
@@ -7924,7 +7924,7 @@
         <v>-21</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.36</v>
+        <v>0.09000000000000001</v>
       </c>
       <c r="DP15" t="n">
         <v>1.43</v>
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.699999999999999</v>
+        <v>4.269999999999985</v>
       </c>
       <c r="C16" t="n">
         <v>30.45</v>
@@ -8069,7 +8069,7 @@
         <v>56.6</v>
       </c>
       <c r="E16" t="n">
-        <v>29.01000000000001</v>
+        <v>22.30000000000012</v>
       </c>
       <c r="F16" t="n">
         <v>125.74</v>
@@ -8078,7 +8078,7 @@
         <v>33.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.380000000000001</v>
+        <v>0.4700000000000017</v>
       </c>
       <c r="I16" t="n">
         <v>14.95</v>
@@ -8096,7 +8096,7 @@
         <v>-0.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>-108.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.76</v>
+        <v>11</v>
       </c>
       <c r="R16" t="n">
         <v>76.92</v>
@@ -8114,7 +8114,7 @@
         <v>21.7</v>
       </c>
       <c r="T16" t="n">
-        <v>3.81</v>
+        <v>0.8399999999999999</v>
       </c>
       <c r="U16" t="n">
         <v>8.630000000000001</v>
@@ -8123,7 +8123,7 @@
         <v>12.2</v>
       </c>
       <c r="W16" t="n">
-        <v>2.559999999999999</v>
+        <v>0.09999999999999853</v>
       </c>
       <c r="X16" t="n">
         <v>69.64</v>
@@ -8141,7 +8141,7 @@
         <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.499999999999996</v>
+        <v>0.1199999999999921</v>
       </c>
       <c r="AD16" t="n">
         <v>38.57</v>
@@ -8150,7 +8150,7 @@
         <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.6699999999999999</v>
+        <v>0.1799999999999999</v>
       </c>
       <c r="AG16" t="n">
         <v>6.23</v>
@@ -8168,7 +8168,7 @@
         <v>2.8</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.349999999999998</v>
+        <v>0.03999999999999679</v>
       </c>
       <c r="AM16" t="n">
         <v>8.17</v>
@@ -8177,7 +8177,7 @@
         <v>44.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>3.18</v>
+        <v>1.780000000000001</v>
       </c>
       <c r="AP16" t="n">
         <v>53.53</v>
@@ -8186,7 +8186,7 @@
         <v>55.4</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.729999999999997</v>
+        <v>0.3199999999999901</v>
       </c>
       <c r="AS16" t="n">
         <v>19.01</v>
@@ -8204,7 +8204,7 @@
         <v>-10.3</v>
       </c>
       <c r="AX16" t="n">
-        <v>6.599999999999994</v>
+        <v>2.719999999999998</v>
       </c>
       <c r="AY16" t="n">
         <v>36.81</v>
@@ -8213,7 +8213,7 @@
         <v>10.5</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.71</v>
+        <v>0.1200000000000027</v>
       </c>
       <c r="BB16" t="n">
         <v>7.29</v>
@@ -8222,7 +8222,7 @@
         <v>15.6</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.71</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="BE16" t="n">
         <v>1.8</v>
@@ -8231,7 +8231,7 @@
         <v>89.3</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.640000000000001</v>
+        <v>0.1000000000000028</v>
       </c>
       <c r="BH16" t="n">
         <v>13.08</v>
@@ -8240,7 +8240,7 @@
         <v>78.8</v>
       </c>
       <c r="BJ16" t="n">
-        <v>13.06999999999999</v>
+        <v>0.1199999999999903</v>
       </c>
       <c r="BK16" t="n">
         <v>103.84</v>
@@ -8258,7 +8258,7 @@
         <v>-46.4</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.03000000000000469</v>
       </c>
       <c r="BQ16" t="n">
         <v>31.06</v>
@@ -8267,7 +8267,7 @@
         <v>353.3</v>
       </c>
       <c r="BS16" t="n">
-        <v>34.45000000000002</v>
+        <v>21.42999999999984</v>
       </c>
       <c r="BT16" t="n">
         <v>184.8</v>
@@ -8285,7 +8285,7 @@
         <v>-4</v>
       </c>
       <c r="BY16" t="n">
-        <v>8.039999999999981</v>
+        <v>3.679999999999964</v>
       </c>
       <c r="BZ16" t="n">
         <v>93</v>
@@ -8294,7 +8294,7 @@
         <v>24.8</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.059999999999999</v>
+        <v>0.119999999999999</v>
       </c>
       <c r="CC16" t="n">
         <v>15.55</v>
@@ -8303,7 +8303,7 @@
         <v>38.4</v>
       </c>
       <c r="CE16" t="n">
-        <v>3.219999999999999</v>
+        <v>1.299999999999996</v>
       </c>
       <c r="CF16" t="n">
         <v>4.58</v>
@@ -8321,7 +8321,7 @@
         <v>-36.1</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.7899999999999991</v>
+        <v>0.06999999999999321</v>
       </c>
       <c r="CL16" t="n">
         <v>45.33</v>
@@ -8339,7 +8339,7 @@
         <v>65.09999999999999</v>
       </c>
       <c r="CQ16" t="n">
-        <v>2.65</v>
+        <v>0.9100000000000017</v>
       </c>
       <c r="CR16" t="n">
         <v>27.79</v>
@@ -8348,7 +8348,7 @@
         <v>83.40000000000001</v>
       </c>
       <c r="CT16" t="n">
-        <v>1.679999999999998</v>
+        <v>0.649999999999997</v>
       </c>
       <c r="CU16" t="n">
         <v>35.38</v>
@@ -8357,7 +8357,7 @@
         <v>27.7</v>
       </c>
       <c r="CW16" t="n">
-        <v>12.84</v>
+        <v>5.260000000000002</v>
       </c>
       <c r="CX16" t="n">
         <v>29.53</v>
@@ -8366,7 +8366,7 @@
         <v>8.5</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.1200000000000004</v>
       </c>
       <c r="DA16" t="n">
         <v>4.66</v>
@@ -8393,7 +8393,7 @@
         <v>11.5</v>
       </c>
       <c r="DI16" t="n">
-        <v>3.989999999999995</v>
+        <v>0.2499999999999787</v>
       </c>
       <c r="DJ16" t="n">
         <v>51.69</v>
@@ -8402,7 +8402,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="DL16" t="n">
-        <v>20.90000000000001</v>
+        <v>19.46000000000001</v>
       </c>
       <c r="DM16" t="n">
         <v>83.86</v>
@@ -8547,7 +8547,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.630000000000003</v>
+        <v>1.930000000000003</v>
       </c>
       <c r="C17" t="n">
         <v>44.53</v>
@@ -8565,7 +8565,7 @@
         <v>41.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.289999999999997</v>
+        <v>0.3499999999999935</v>
       </c>
       <c r="I17" t="n">
         <v>18.5</v>
@@ -8574,7 +8574,7 @@
         <v>22.2</v>
       </c>
       <c r="K17" t="n">
-        <v>6.92</v>
+        <v>6.040000000000004</v>
       </c>
       <c r="L17" t="n">
         <v>17.39</v>
@@ -8601,7 +8601,7 @@
         <v>27.9</v>
       </c>
       <c r="T17" t="n">
-        <v>7.260000000000001</v>
+        <v>0.6300000000000012</v>
       </c>
       <c r="U17" t="n">
         <v>11.42</v>
@@ -8610,7 +8610,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="W17" t="n">
-        <v>10.62</v>
+        <v>5.300000000000003</v>
       </c>
       <c r="X17" t="n">
         <v>89.45999999999999</v>
@@ -8628,7 +8628,7 @@
         <v>10.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.630000000000003</v>
+        <v>5.77000000000003</v>
       </c>
       <c r="AD17" t="n">
         <v>48.43</v>
@@ -8637,7 +8637,7 @@
         <v>27.4</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.210000000000001</v>
+        <v>0.1800000000000013</v>
       </c>
       <c r="AG17" t="n">
         <v>8.33</v>
@@ -8646,7 +8646,7 @@
         <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>382.6999999999998</v>
+        <v>254.620000000001</v>
       </c>
       <c r="AJ17" t="n">
         <v>2278.29</v>
@@ -8664,7 +8664,7 @@
         <v>44.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.73</v>
+        <v>1.109999999999998</v>
       </c>
       <c r="AP17" t="n">
         <v>72.06999999999999</v>
@@ -8673,7 +8673,7 @@
         <v>46.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.190000000000005</v>
+        <v>0.0900000000000305</v>
       </c>
       <c r="AS17" t="n">
         <v>27.51</v>
@@ -8682,7 +8682,7 @@
         <v>-28.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.6</v>
+        <v>0.6000000000000079</v>
       </c>
       <c r="AV17" t="n">
         <v>13.25</v>
@@ -8709,7 +8709,7 @@
         <v>21.4</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.6500000000000001</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="BE17" t="n">
         <v>2.67</v>
@@ -8718,7 +8718,7 @@
         <v>2.2</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.01</v>
+        <v>1.799999999999991</v>
       </c>
       <c r="BH17" t="n">
         <v>17.4</v>
@@ -8727,7 +8727,7 @@
         <v>64.2</v>
       </c>
       <c r="BJ17" t="n">
-        <v>10.55000000000001</v>
+        <v>10.31000000000003</v>
       </c>
       <c r="BK17" t="n">
         <v>120.01</v>
@@ -8745,7 +8745,7 @@
         <v>-37.1</v>
       </c>
       <c r="BP17" t="n">
-        <v>2.110000000000001</v>
+        <v>0.1799999999999941</v>
       </c>
       <c r="BQ17" t="n">
         <v>39.45</v>
@@ -8763,7 +8763,7 @@
         <v>5.2</v>
       </c>
       <c r="BV17" t="n">
-        <v>24.56</v>
+        <v>10.23999999999992</v>
       </c>
       <c r="BW17" t="n">
         <v>206.27</v>
@@ -8772,7 +8772,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BY17" t="n">
-        <v>27.64999999999999</v>
+        <v>8.570000000000126</v>
       </c>
       <c r="BZ17" t="n">
         <v>119.6</v>
@@ -8781,7 +8781,7 @@
         <v>14.6</v>
       </c>
       <c r="CB17" t="n">
-        <v>3.5</v>
+        <v>2.080000000000004</v>
       </c>
       <c r="CC17" t="n">
         <v>21.06</v>
@@ -8799,7 +8799,7 @@
         <v>-79</v>
       </c>
       <c r="CH17" t="n">
-        <v>101.37</v>
+        <v>96.13000000000044</v>
       </c>
       <c r="CI17" t="n">
         <v>368.51</v>
@@ -8808,7 +8808,7 @@
         <v>-33.3</v>
       </c>
       <c r="CK17" t="n">
-        <v>8.740000000000002</v>
+        <v>6.660000000000014</v>
       </c>
       <c r="CL17" t="n">
         <v>62.13</v>
@@ -8817,7 +8817,7 @@
         <v>9.5</v>
       </c>
       <c r="CN17" t="n">
-        <v>1.54</v>
+        <v>0.9400000000000035</v>
       </c>
       <c r="CO17" t="n">
         <v>-3.44</v>
@@ -8826,7 +8826,7 @@
         <v>60.6</v>
       </c>
       <c r="CQ17" t="n">
-        <v>4.379999999999999</v>
+        <v>1.729999999999999</v>
       </c>
       <c r="CR17" t="n">
         <v>36.72</v>
@@ -8835,7 +8835,7 @@
         <v>70.3</v>
       </c>
       <c r="CT17" t="n">
-        <v>7.549999999999997</v>
+        <v>3.920000000000009</v>
       </c>
       <c r="CU17" t="n">
         <v>47.99</v>
@@ -8844,7 +8844,7 @@
         <v>27.2</v>
       </c>
       <c r="CW17" t="n">
-        <v>10.22</v>
+        <v>1.92</v>
       </c>
       <c r="CX17" t="n">
         <v>45.06</v>
@@ -8853,7 +8853,7 @@
         <v>12.5</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.23</v>
+        <v>0.1099999999999996</v>
       </c>
       <c r="DA17" t="n">
         <v>5.9</v>
@@ -8862,7 +8862,7 @@
         <v>59</v>
       </c>
       <c r="DC17" t="n">
-        <v>2.719999999999999</v>
+        <v>0.399999999999995</v>
       </c>
       <c r="DD17" t="n">
         <v>32.44</v>
@@ -8871,7 +8871,7 @@
         <v>1.3</v>
       </c>
       <c r="DF17" t="n">
-        <v>7.240000000000002</v>
+        <v>0.01000000000001089</v>
       </c>
       <c r="DG17" t="n">
         <v>47.33</v>
@@ -8880,7 +8880,7 @@
         <v>14.3</v>
       </c>
       <c r="DI17" t="n">
-        <v>10.14999999999999</v>
+        <v>3.54000000000005</v>
       </c>
       <c r="DJ17" t="n">
         <v>66.05</v>
@@ -8898,7 +8898,7 @@
         <v>-2.5</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="DP17" t="n">
         <v>3.11</v>
@@ -9052,7 +9052,7 @@
         <v>51.2</v>
       </c>
       <c r="H18" t="n">
-        <v>1.270000000000003</v>
+        <v>0.1000000000000142</v>
       </c>
       <c r="I18" t="n">
         <v>21.22</v>
@@ -9070,7 +9070,7 @@
         <v>-4.2</v>
       </c>
       <c r="N18" t="n">
-        <v>0.04000000000000001</v>
+        <v>2.42861286636753e-17</v>
       </c>
       <c r="O18" t="n">
         <v>0.05</v>
@@ -9088,7 +9088,7 @@
         <v>31.9</v>
       </c>
       <c r="T18" t="n">
-        <v>12</v>
+        <v>0.02999999999999559</v>
       </c>
       <c r="U18" t="n">
         <v>12.42</v>
@@ -9106,7 +9106,7 @@
         <v>25.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.560000000000002</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="AA18" t="n">
         <v>29.67</v>
@@ -9124,7 +9124,7 @@
         <v>26.4</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.129999999999999</v>
+        <v>0.04999999999999671</v>
       </c>
       <c r="AG18" t="n">
         <v>9.630000000000001</v>
@@ -9142,7 +9142,7 @@
         <v>8.1</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.2399999999999984</v>
+        <v>0.0599999999999965</v>
       </c>
       <c r="AM18" t="n">
         <v>13.26</v>
@@ -9151,7 +9151,7 @@
         <v>29.7</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.759999999999998</v>
+        <v>1.209999999999997</v>
       </c>
       <c r="AP18" t="n">
         <v>87.01000000000001</v>
@@ -9160,7 +9160,7 @@
         <v>42.8</v>
       </c>
       <c r="AR18" t="n">
-        <v>3.75</v>
+        <v>0.08999999999997899</v>
       </c>
       <c r="AS18" t="n">
         <v>33.65</v>
@@ -9169,7 +9169,7 @@
         <v>-21.1</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.56</v>
+        <v>0.4599999999999982</v>
       </c>
       <c r="AV18" t="n">
         <v>16.23</v>
@@ -9178,7 +9178,7 @@
         <v>1.8</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9499999999999886</v>
+        <v>0.06999999999996481</v>
       </c>
       <c r="AY18" t="n">
         <v>51.36</v>
@@ -9187,7 +9187,7 @@
         <v>9.4</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.1199999999999999</v>
+        <v>0.009999999999999801</v>
       </c>
       <c r="BB18" t="n">
         <v>11.29</v>
@@ -9196,7 +9196,7 @@
         <v>14.8</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.6</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="BE18" t="n">
         <v>2.53</v>
@@ -9214,7 +9214,7 @@
         <v>62.1</v>
       </c>
       <c r="BJ18" t="n">
-        <v>18.44</v>
+        <v>7.889999999999992</v>
       </c>
       <c r="BK18" t="n">
         <v>136.91</v>
@@ -9232,7 +9232,7 @@
         <v>-22.9</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.269999999999998</v>
+        <v>0.1099999999999981</v>
       </c>
       <c r="BQ18" t="n">
         <v>45.54</v>
@@ -9259,7 +9259,7 @@
         <v>10.9</v>
       </c>
       <c r="BY18" t="n">
-        <v>18.31</v>
+        <v>2.379999999999949</v>
       </c>
       <c r="BZ18" t="n">
         <v>139.95</v>
@@ -9268,7 +9268,7 @@
         <v>6</v>
       </c>
       <c r="CB18" t="n">
-        <v>3.140000000000001</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="CC18" t="n">
         <v>25.29</v>
@@ -9313,7 +9313,7 @@
         <v>-4891</v>
       </c>
       <c r="CQ18" t="n">
-        <v>2.329999999999998</v>
+        <v>0.5999999999999988</v>
       </c>
       <c r="CR18" t="n">
         <v>45.17</v>
@@ -9322,7 +9322,7 @@
         <v>74.09999999999999</v>
       </c>
       <c r="CT18" t="n">
-        <v>7.32</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="CU18" t="n">
         <v>57.43</v>
@@ -9340,7 +9340,7 @@
         <v>12.2</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.03000000000000017</v>
       </c>
       <c r="DA18" t="n">
         <v>7.29</v>
@@ -9349,7 +9349,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="DC18" t="n">
-        <v>2.57</v>
+        <v>1.370000000000015</v>
       </c>
       <c r="DD18" t="n">
         <v>37.28</v>
@@ -9358,7 +9358,7 @@
         <v>7.3</v>
       </c>
       <c r="DF18" t="n">
-        <v>1.329999999999998</v>
+        <v>1.319999999999987</v>
       </c>
       <c r="DG18" t="n">
         <v>55.69</v>
@@ -9367,7 +9367,7 @@
         <v>14.5</v>
       </c>
       <c r="DI18" t="n">
-        <v>6.77000000000001</v>
+        <v>0.6100000000000154</v>
       </c>
       <c r="DJ18" t="n">
         <v>78.98</v>
@@ -9385,7 +9385,7 @@
         <v>5.2</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.5099999999999998</v>
+        <v>0.04999999999999977</v>
       </c>
       <c r="DP18" t="n">
         <v>3.33</v>
@@ -9539,7 +9539,7 @@
         <v>53.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.699999999999999</v>
+        <v>0.7099999999999853</v>
       </c>
       <c r="I19" t="n">
         <v>25.29</v>
@@ -9557,7 +9557,7 @@
         <v>-1.7</v>
       </c>
       <c r="N19" t="n">
-        <v>0.05</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O19" t="n">
         <v>0.04</v>
@@ -9584,7 +9584,7 @@
         <v>25.8</v>
       </c>
       <c r="W19" t="n">
-        <v>11.71000000000001</v>
+        <v>4.230000000000048</v>
       </c>
       <c r="X19" t="n">
         <v>117.99</v>
@@ -9602,7 +9602,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.990000000000002</v>
+        <v>0.03000000000002223</v>
       </c>
       <c r="AD19" t="n">
         <v>66.87</v>
@@ -9611,7 +9611,7 @@
         <v>24.4</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.250000000000002</v>
+        <v>0.2000000000000053</v>
       </c>
       <c r="AG19" t="n">
         <v>10.87</v>
@@ -9620,7 +9620,7 @@
         <v>10.4</v>
       </c>
       <c r="AI19" t="n">
-        <v>395.2599999999998</v>
+        <v>321.5799999999979</v>
       </c>
       <c r="AJ19" t="n">
         <v>3246.16</v>
@@ -9629,7 +9629,7 @@
         <v>10</v>
       </c>
       <c r="AL19" t="n">
-        <v>2.48</v>
+        <v>2.060000000000012</v>
       </c>
       <c r="AM19" t="n">
         <v>16.65</v>
@@ -9638,7 +9638,7 @@
         <v>29.7</v>
       </c>
       <c r="AO19" t="n">
-        <v>2.370000000000003</v>
+        <v>1.160000000000006</v>
       </c>
       <c r="AP19" t="n">
         <v>104.13</v>
@@ -9647,7 +9647,7 @@
         <v>47.3</v>
       </c>
       <c r="AR19" t="n">
-        <v>1.649999999999999</v>
+        <v>0.270000000000028</v>
       </c>
       <c r="AS19" t="n">
         <v>39.32</v>
@@ -9656,7 +9656,7 @@
         <v>-15.3</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.5199999999999978</v>
+        <v>0.05999999999999961</v>
       </c>
       <c r="AV19" t="n">
         <v>18.44</v>
@@ -9665,7 +9665,7 @@
         <v>-0.3</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.900000000000006</v>
+        <v>6.300000000000111</v>
       </c>
       <c r="AY19" t="n">
         <v>60.21</v>
@@ -9674,7 +9674,7 @@
         <v>9.6</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.690000000000001</v>
+        <v>1.540000000000001</v>
       </c>
       <c r="BB19" t="n">
         <v>12.65</v>
@@ -9683,7 +9683,7 @@
         <v>7.4</v>
       </c>
       <c r="BD19" t="n">
-        <v>1.37</v>
+        <v>0.1200000000000004</v>
       </c>
       <c r="BE19" t="n">
         <v>2.06</v>
@@ -9692,7 +9692,7 @@
         <v>29.3</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.690000000000001</v>
+        <v>0.360000000000001</v>
       </c>
       <c r="BH19" t="n">
         <v>25.3</v>
@@ -9719,7 +9719,7 @@
         <v>-34.8</v>
       </c>
       <c r="BP19" t="n">
-        <v>0.8500000000000032</v>
+        <v>0.630000000000007</v>
       </c>
       <c r="BQ19" t="n">
         <v>52.37</v>
@@ -9728,7 +9728,7 @@
         <v>231.9</v>
       </c>
       <c r="BS19" t="n">
-        <v>38.56999999999999</v>
+        <v>11.84999999999995</v>
       </c>
       <c r="BT19" t="n">
         <v>335.99</v>
@@ -9737,7 +9737,7 @@
         <v>5.5</v>
       </c>
       <c r="BV19" t="n">
-        <v>14.55000000000004</v>
+        <v>6.630000000000049</v>
       </c>
       <c r="BW19" t="n">
         <v>266.28</v>
@@ -9755,7 +9755,7 @@
         <v>7.7</v>
       </c>
       <c r="CB19" t="n">
-        <v>1.91</v>
+        <v>0.5099999999999998</v>
       </c>
       <c r="CC19" t="n">
         <v>30.23</v>
@@ -9782,7 +9782,7 @@
         <v>-27.4</v>
       </c>
       <c r="CK19" t="n">
-        <v>2.509999999999987</v>
+        <v>0.6699999999999831</v>
       </c>
       <c r="CL19" t="n">
         <v>95.33</v>
@@ -9791,7 +9791,7 @@
         <v>27.7</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.71</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="CO19" t="n">
         <v>0.12</v>
@@ -9809,7 +9809,7 @@
         <v>67.7</v>
       </c>
       <c r="CT19" t="n">
-        <v>7.310000000000002</v>
+        <v>4.41</v>
       </c>
       <c r="CU19" t="n">
         <v>69.81999999999999</v>
@@ -9818,7 +9818,7 @@
         <v>32.7</v>
       </c>
       <c r="CW19" t="n">
-        <v>2.76</v>
+        <v>0.6000000000000039</v>
       </c>
       <c r="CX19" t="n">
         <v>71.66</v>
@@ -9827,7 +9827,7 @@
         <v>17.4</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.1299999999999999</v>
+        <v>0.06999999999999956</v>
       </c>
       <c r="DA19" t="n">
         <v>9.09</v>
@@ -9845,7 +9845,7 @@
         <v>4.2</v>
       </c>
       <c r="DF19" t="n">
-        <v>8.219999999999999</v>
+        <v>2.900000000000006</v>
       </c>
       <c r="DG19" t="n">
         <v>66.92</v>
@@ -9854,7 +9854,7 @@
         <v>16.9</v>
       </c>
       <c r="DI19" t="n">
-        <v>1.419999999999987</v>
+        <v>0.1999999999999562</v>
       </c>
       <c r="DJ19" t="n">
         <v>89.98999999999999</v>
@@ -9872,7 +9872,7 @@
         <v>11.3</v>
       </c>
       <c r="DO19" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="DP19" t="n">
         <v>4.08</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.840000000000003</v>
+        <v>5.440000000000025</v>
       </c>
       <c r="C20" t="n">
         <v>74.62</v>
@@ -10017,7 +10017,7 @@
         <v>40.3</v>
       </c>
       <c r="E20" t="n">
-        <v>22.13</v>
+        <v>12.16999999999996</v>
       </c>
       <c r="F20" t="n">
         <v>306.53</v>
@@ -10026,7 +10026,7 @@
         <v>59.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.259999999999998</v>
+        <v>1.100000000000005</v>
       </c>
       <c r="I20" t="n">
         <v>31</v>
@@ -10035,7 +10035,7 @@
         <v>12.9</v>
       </c>
       <c r="K20" t="n">
-        <v>2.449999999999999</v>
+        <v>0.530000000000008</v>
       </c>
       <c r="L20" t="n">
         <v>28.28</v>
@@ -10044,7 +10044,7 @@
         <v>-0.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03</v>
+        <v>1.561251128379126e-17</v>
       </c>
       <c r="O20" t="n">
         <v>0.09</v>
@@ -10053,7 +10053,7 @@
         <v>76.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.85</v>
+        <v>1.57000000000001</v>
       </c>
       <c r="R20" t="n">
         <v>163.11</v>
@@ -10062,7 +10062,7 @@
         <v>52.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.34</v>
+        <v>1.02</v>
       </c>
       <c r="U20" t="n">
         <v>17.56</v>
@@ -10080,7 +10080,7 @@
         <v>27.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.870000000000005</v>
+        <v>1.630000000000025</v>
       </c>
       <c r="AA20" t="n">
         <v>40.62</v>
@@ -10089,7 +10089,7 @@
         <v>9</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.879999999999995</v>
+        <v>0.8599999999999568</v>
       </c>
       <c r="AD20" t="n">
         <v>77.22</v>
@@ -10098,7 +10098,7 @@
         <v>20.9</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.4599999999999991</v>
+        <v>0.2099999999999971</v>
       </c>
       <c r="AG20" t="n">
         <v>12.52</v>
@@ -10125,7 +10125,7 @@
         <v>29.7</v>
       </c>
       <c r="AO20" t="n">
-        <v>11.34</v>
+        <v>3.069999999999987</v>
       </c>
       <c r="AP20" t="n">
         <v>121.65</v>
@@ -10134,7 +10134,7 @@
         <v>46.9</v>
       </c>
       <c r="AR20" t="n">
-        <v>3.630000000000003</v>
+        <v>0.330000000000005</v>
       </c>
       <c r="AS20" t="n">
         <v>46.54</v>
@@ -10143,7 +10143,7 @@
         <v>-10.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>2.740000000000002</v>
+        <v>1.120000000000008</v>
       </c>
       <c r="AV20" t="n">
         <v>22.03</v>
@@ -10170,7 +10170,7 @@
         <v>8.1</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.49</v>
+        <v>0.06999999999999978</v>
       </c>
       <c r="BE20" t="n">
         <v>1.9</v>
@@ -10179,7 +10179,7 @@
         <v>38.7</v>
       </c>
       <c r="BG20" t="n">
-        <v>2.739999999999998</v>
+        <v>0.329999999999995</v>
       </c>
       <c r="BH20" t="n">
         <v>29.21</v>
@@ -10188,7 +10188,7 @@
         <v>62.6</v>
       </c>
       <c r="BJ20" t="n">
-        <v>12.72999999999999</v>
+        <v>0.92999999999995</v>
       </c>
       <c r="BK20" t="n">
         <v>176.62</v>
@@ -10206,7 +10206,7 @@
         <v>-22</v>
       </c>
       <c r="BP20" t="n">
-        <v>0.9799999999999951</v>
+        <v>0.1299999999999919</v>
       </c>
       <c r="BQ20" t="n">
         <v>60.78</v>
@@ -10224,7 +10224,7 @@
         <v>8</v>
       </c>
       <c r="BV20" t="n">
-        <v>16.87999999999994</v>
+        <v>2.329999999999899</v>
       </c>
       <c r="BW20" t="n">
         <v>324.73</v>
@@ -10233,7 +10233,7 @@
         <v>10.2</v>
       </c>
       <c r="BY20" t="n">
-        <v>19.39000000000001</v>
+        <v>13.35000000000005</v>
       </c>
       <c r="BZ20" t="n">
         <v>185.51</v>
@@ -10242,7 +10242,7 @@
         <v>9</v>
       </c>
       <c r="CB20" t="n">
-        <v>2.759999999999998</v>
+        <v>0.8499999999999981</v>
       </c>
       <c r="CC20" t="n">
         <v>35.15</v>
@@ -10269,7 +10269,7 @@
         <v>-25.2</v>
       </c>
       <c r="CK20" t="n">
-        <v>2.310000000000009</v>
+        <v>0.2600000000000229</v>
       </c>
       <c r="CL20" t="n">
         <v>112.4</v>
@@ -10278,7 +10278,7 @@
         <v>30.2</v>
       </c>
       <c r="CN20" t="n">
-        <v>1.05</v>
+        <v>0.0500000000000001</v>
       </c>
       <c r="CO20" t="n">
         <v>1.96</v>
@@ -10287,7 +10287,7 @@
         <v>-36.7</v>
       </c>
       <c r="CQ20" t="n">
-        <v>5</v>
+        <v>3.839999999999989</v>
       </c>
       <c r="CR20" t="n">
         <v>63.95</v>
@@ -10305,7 +10305,7 @@
         <v>35.6</v>
       </c>
       <c r="CW20" t="n">
-        <v>12.39</v>
+        <v>4.589999999999995</v>
       </c>
       <c r="CX20" t="n">
         <v>90.19</v>
@@ -10314,7 +10314,7 @@
         <v>21</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.5599999999999998</v>
+        <v>0.07000000000000037</v>
       </c>
       <c r="DA20" t="n">
         <v>10.4</v>
@@ -10323,7 +10323,7 @@
         <v>92.7</v>
       </c>
       <c r="DC20" t="n">
-        <v>5.740000000000002</v>
+        <v>2.140000000000007</v>
       </c>
       <c r="DD20" t="n">
         <v>50.93</v>
@@ -10341,7 +10341,7 @@
         <v>24.9</v>
       </c>
       <c r="DI20" t="n">
-        <v>5.939999999999998</v>
+        <v>0.8700000000000643</v>
       </c>
       <c r="DJ20" t="n">
         <v>104.2</v>
@@ -10513,7 +10513,7 @@
         <v>64.56999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>5.020000000000003</v>
+        <v>0.5000000000000071</v>
       </c>
       <c r="I21" t="n">
         <v>36.16</v>
@@ -10522,7 +10522,7 @@
         <v>8.23</v>
       </c>
       <c r="K21" t="n">
-        <v>2.540000000000003</v>
+        <v>0.0900000000000043</v>
       </c>
       <c r="L21" t="n">
         <v>31.92</v>
@@ -10531,7 +10531,7 @@
         <v>3.56</v>
       </c>
       <c r="N21" t="n">
-        <v>0.05</v>
+        <v>0.00999999999999999</v>
       </c>
       <c r="O21" t="n">
         <v>0.1</v>
@@ -10540,7 +10540,7 @@
         <v>23.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.02999999999999</v>
+        <v>4.469999999999961</v>
       </c>
       <c r="R21" t="n">
         <v>195.08</v>
@@ -10549,7 +10549,7 @@
         <v>60.87</v>
       </c>
       <c r="T21" t="n">
-        <v>1.319999999999998</v>
+        <v>0.05999999999999805</v>
       </c>
       <c r="U21" t="n">
         <v>21</v>
@@ -10558,7 +10558,7 @@
         <v>55.6</v>
       </c>
       <c r="W21" t="n">
-        <v>15.39</v>
+        <v>3.850000000000041</v>
       </c>
       <c r="X21" t="n">
         <v>154.91</v>
@@ -10567,7 +10567,7 @@
         <v>24.93</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.329999999999998</v>
+        <v>1.649999999999983</v>
       </c>
       <c r="AA21" t="n">
         <v>44.83</v>
@@ -10576,7 +10576,7 @@
         <v>2.48</v>
       </c>
       <c r="AC21" t="n">
-        <v>3.560000000000017</v>
+        <v>1.170000000000031</v>
       </c>
       <c r="AD21" t="n">
         <v>86.18000000000001</v>
@@ -10585,7 +10585,7 @@
         <v>23.57</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.69</v>
+        <v>0.6000000000000099</v>
       </c>
       <c r="AG21" t="n">
         <v>13.7</v>
@@ -10594,7 +10594,7 @@
         <v>4.9</v>
       </c>
       <c r="AI21" t="n">
-        <v>387.23</v>
+        <v>317.2299999999984</v>
       </c>
       <c r="AJ21" t="n">
         <v>4373.95</v>
@@ -10603,7 +10603,7 @@
         <v>16.33</v>
       </c>
       <c r="AL21" t="n">
-        <v>3.129999999999999</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="AM21" t="n">
         <v>23.6</v>
@@ -10621,7 +10621,7 @@
         <v>50.34</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.529999999999994</v>
+        <v>0.8899999999999801</v>
       </c>
       <c r="AS21" t="n">
         <v>53.24</v>
@@ -10648,7 +10648,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="BA21" t="n">
-        <v>1.989999999999998</v>
+        <v>0.9399999999999991</v>
       </c>
       <c r="BB21" t="n">
         <v>17.8</v>
@@ -10657,7 +10657,7 @@
         <v>9.83</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.43</v>
+        <v>0.3600000000000002</v>
       </c>
       <c r="BE21" t="n">
         <v>1.46</v>
@@ -10675,7 +10675,7 @@
         <v>57.1</v>
       </c>
       <c r="BJ21" t="n">
-        <v>10.18000000000001</v>
+        <v>0.4000000000000306</v>
       </c>
       <c r="BK21" t="n">
         <v>193.57</v>
@@ -10693,7 +10693,7 @@
         <v>-14.71</v>
       </c>
       <c r="BP21" t="n">
-        <v>4.560000000000006</v>
+        <v>3.190000000000035</v>
       </c>
       <c r="BQ21" t="n">
         <v>69.02</v>
@@ -10702,7 +10702,7 @@
         <v>173.63</v>
       </c>
       <c r="BS21" t="n">
-        <v>35.61000000000001</v>
+        <v>27.13</v>
       </c>
       <c r="BT21" t="n">
         <v>432.37</v>
@@ -10711,7 +10711,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="BV21" t="n">
-        <v>26.95999999999998</v>
+        <v>3.090000000000344</v>
       </c>
       <c r="BW21" t="n">
         <v>363.92</v>
@@ -10720,7 +10720,7 @@
         <v>1.49</v>
       </c>
       <c r="BY21" t="n">
-        <v>16.40000000000001</v>
+        <v>0.02999999999997982</v>
       </c>
       <c r="BZ21" t="n">
         <v>213.41</v>
@@ -10729,7 +10729,7 @@
         <v>12.6</v>
       </c>
       <c r="CB21" t="n">
-        <v>3.030000000000005</v>
+        <v>0.2700000000000071</v>
       </c>
       <c r="CC21" t="n">
         <v>41.53</v>
@@ -10738,7 +10738,7 @@
         <v>38.16</v>
       </c>
       <c r="CE21" t="n">
-        <v>48.51000000000001</v>
+        <v>203.63</v>
       </c>
       <c r="CF21" t="n">
         <v>29.7</v>
@@ -10756,7 +10756,7 @@
         <v>-19.01</v>
       </c>
       <c r="CK21" t="n">
-        <v>3.710000000000001</v>
+        <v>0.8799999999999462</v>
       </c>
       <c r="CL21" t="n">
         <v>130.26</v>
@@ -10765,7 +10765,7 @@
         <v>29.77</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.7299999999999995</v>
+        <v>0.04999999999999943</v>
       </c>
       <c r="CO21" t="n">
         <v>2.74</v>
@@ -10783,7 +10783,7 @@
         <v>63.54</v>
       </c>
       <c r="CT21" t="n">
-        <v>9.980000000000004</v>
+        <v>1.28000000000004</v>
       </c>
       <c r="CU21" t="n">
         <v>93.84</v>
@@ -10801,7 +10801,7 @@
         <v>27.46</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.370000000000001</v>
+        <v>0.07000000000000101</v>
       </c>
       <c r="DA21" t="n">
         <v>12.32</v>
@@ -10819,7 +10819,7 @@
         <v>11.7</v>
       </c>
       <c r="DF21" t="n">
-        <v>0.7000000000000028</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="DG21" t="n">
         <v>90.27</v>
@@ -10828,7 +10828,7 @@
         <v>21.49</v>
       </c>
       <c r="DI21" t="n">
-        <v>85.75</v>
+        <v>70.50999999999993</v>
       </c>
       <c r="DJ21" t="n">
         <v>109.81</v>
@@ -10837,7 +10837,7 @@
         <v>19.55</v>
       </c>
       <c r="DL21" t="n">
-        <v>11.33000000000001</v>
+        <v>1.450000000000087</v>
       </c>
       <c r="DM21" t="n">
         <v>222.94</v>
@@ -10846,7 +10846,7 @@
         <v>24.34</v>
       </c>
       <c r="DO21" t="n">
-        <v>0.2799999999999996</v>
+        <v>0.06999999999999748</v>
       </c>
       <c r="DP21" t="n">
         <v>5.88</v>
@@ -10991,7 +10991,7 @@
         <v>45.36</v>
       </c>
       <c r="E22" t="n">
-        <v>22.23999999999998</v>
+        <v>2.239999999999981</v>
       </c>
       <c r="F22" t="n">
         <v>401.44</v>
@@ -11000,7 +11000,7 @@
         <v>66.55</v>
       </c>
       <c r="H22" t="n">
-        <v>4.259999999999998</v>
+        <v>0.4999999999999787</v>
       </c>
       <c r="I22" t="n">
         <v>45.27</v>
@@ -11009,7 +11009,7 @@
         <v>17.78</v>
       </c>
       <c r="K22" t="n">
-        <v>2.75</v>
+        <v>0.0299999999999883</v>
       </c>
       <c r="L22" t="n">
         <v>36.23</v>
@@ -11027,7 +11027,7 @@
         <v>19.95</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.53000000000001</v>
+        <v>3.500000000000018</v>
       </c>
       <c r="R22" t="n">
         <v>225.54</v>
@@ -11036,7 +11036,7 @@
         <v>67.95</v>
       </c>
       <c r="T22" t="n">
-        <v>1.720000000000002</v>
+        <v>0.2800000000000079</v>
       </c>
       <c r="U22" t="n">
         <v>25.78</v>
@@ -11045,7 +11045,7 @@
         <v>58.76</v>
       </c>
       <c r="W22" t="n">
-        <v>8.500000000000011</v>
+        <v>0.7999999999999292</v>
       </c>
       <c r="X22" t="n">
         <v>175.02</v>
@@ -11054,7 +11054,7 @@
         <v>25.57</v>
       </c>
       <c r="Z22" t="n">
-        <v>5.25</v>
+        <v>0.1400000000000239</v>
       </c>
       <c r="AA22" t="n">
         <v>52.07</v>
@@ -11063,7 +11063,7 @@
         <v>6.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.359999999999989</v>
+        <v>0.189999999999958</v>
       </c>
       <c r="AD22" t="n">
         <v>97.77</v>
@@ -11090,7 +11090,7 @@
         <v>19.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>3.010000000000002</v>
+        <v>0.9200000000000048</v>
       </c>
       <c r="AM22" t="n">
         <v>27.2</v>
@@ -11108,7 +11108,7 @@
         <v>49.36</v>
       </c>
       <c r="AR22" t="n">
-        <v>6.329999999999998</v>
+        <v>0.03000000000002889</v>
       </c>
       <c r="AS22" t="n">
         <v>64.98</v>
@@ -11117,7 +11117,7 @@
         <v>3.78</v>
       </c>
       <c r="AU22" t="n">
-        <v>2.709999999999997</v>
+        <v>2.470000000000001</v>
       </c>
       <c r="AV22" t="n">
         <v>28.81</v>
@@ -11126,7 +11126,7 @@
         <v>6.24</v>
       </c>
       <c r="AX22" t="n">
-        <v>4.509999999999991</v>
+        <v>0.06999999999993101</v>
       </c>
       <c r="AY22" t="n">
         <v>89.90000000000001</v>
@@ -11135,7 +11135,7 @@
         <v>7.95</v>
       </c>
       <c r="BA22" t="n">
-        <v>1.699999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="BB22" t="n">
         <v>20.37</v>
@@ -11144,7 +11144,7 @@
         <v>11.92</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.73</v>
+        <v>0.01000000000000012</v>
       </c>
       <c r="BE22" t="n">
         <v>1.95</v>
@@ -11153,7 +11153,7 @@
         <v>350.81</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.620000000000001</v>
+        <v>1.379999999999989</v>
       </c>
       <c r="BH22" t="n">
         <v>35.75</v>
@@ -11162,7 +11162,7 @@
         <v>52.13</v>
       </c>
       <c r="BJ22" t="n">
-        <v>3.620000000000005</v>
+        <v>2.819999999999943</v>
       </c>
       <c r="BK22" t="n">
         <v>209</v>
@@ -11171,7 +11171,7 @@
         <v>19.78</v>
       </c>
       <c r="BM22" t="n">
-        <v>9.419999999999998</v>
+        <v>33.5</v>
       </c>
       <c r="BN22" t="n">
         <v>-5.06</v>
@@ -11180,7 +11180,7 @@
         <v>-15.91</v>
       </c>
       <c r="BP22" t="n">
-        <v>8.460000000000001</v>
+        <v>0.3199999999999839</v>
       </c>
       <c r="BQ22" t="n">
         <v>76.11</v>
@@ -11189,7 +11189,7 @@
         <v>117.53</v>
       </c>
       <c r="BS22" t="n">
-        <v>31.94</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="BT22" t="n">
         <v>471.48</v>
@@ -11198,7 +11198,7 @@
         <v>8.789999999999999</v>
       </c>
       <c r="BV22" t="n">
-        <v>37.94000000000005</v>
+        <v>0.9000000000000306</v>
       </c>
       <c r="BW22" t="n">
         <v>409.64</v>
@@ -11207,7 +11207,7 @@
         <v>6.26</v>
       </c>
       <c r="BY22" t="n">
-        <v>14.93999999999999</v>
+        <v>14.91000000000001</v>
       </c>
       <c r="BZ22" t="n">
         <v>241.21</v>
@@ -11216,7 +11216,7 @@
         <v>17.13</v>
       </c>
       <c r="CB22" t="n">
-        <v>0.8199999999999967</v>
+        <v>0.009999999999975362</v>
       </c>
       <c r="CC22" t="n">
         <v>47.1</v>
@@ -11243,7 +11243,7 @@
         <v>-12.41</v>
       </c>
       <c r="CK22" t="n">
-        <v>6.68000000000001</v>
+        <v>0.1700000000000261</v>
       </c>
       <c r="CL22" t="n">
         <v>151.42</v>
@@ -11252,7 +11252,7 @@
         <v>28.2</v>
       </c>
       <c r="CN22" t="n">
-        <v>2.049999999999999</v>
+        <v>0.1500000000000005</v>
       </c>
       <c r="CO22" t="n">
         <v>3.43</v>
@@ -11261,7 +11261,7 @@
         <v>-38.54</v>
       </c>
       <c r="CQ22" t="n">
-        <v>6.420000000000002</v>
+        <v>1.079999999999998</v>
       </c>
       <c r="CR22" t="n">
         <v>82.47</v>
@@ -11270,7 +11270,7 @@
         <v>57.6</v>
       </c>
       <c r="CT22" t="n">
-        <v>5.899999999999997</v>
+        <v>0.4399999999999291</v>
       </c>
       <c r="CU22" t="n">
         <v>106.81</v>
@@ -11279,7 +11279,7 @@
         <v>33.33</v>
       </c>
       <c r="CW22" t="n">
-        <v>5.250000000000018</v>
+        <v>0.900000000000027</v>
       </c>
       <c r="CX22" t="n">
         <v>128.35</v>
@@ -11288,7 +11288,7 @@
         <v>23.78</v>
       </c>
       <c r="CZ22" t="n">
-        <v>1.039999999999999</v>
+        <v>0.2299999999999959</v>
       </c>
       <c r="DA22" t="n">
         <v>14.69</v>
@@ -11306,7 +11306,7 @@
         <v>13.19</v>
       </c>
       <c r="DF22" t="n">
-        <v>3.269999999999998</v>
+        <v>2.389999999999989</v>
       </c>
       <c r="DG22" t="n">
         <v>101.97</v>
@@ -11324,7 +11324,7 @@
         <v>21.82</v>
       </c>
       <c r="DL22" t="n">
-        <v>7.1</v>
+        <v>0.7099999999999502</v>
       </c>
       <c r="DM22" t="n">
         <v>250.16</v>
@@ -11333,7 +11333,7 @@
         <v>31.24</v>
       </c>
       <c r="DO22" t="n">
-        <v>1.660000000000001</v>
+        <v>0.9600000000000065</v>
       </c>
       <c r="DP22" t="n">
         <v>7.05</v>
